--- a/Test/Micro Plan - TA-416 Sep'25.xlsx
+++ b/Test/Micro Plan - TA-416 Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A40E783-D303-42C8-A2ED-1C96BA0B9F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5A3EA-8E12-4463-9DCB-3AC68C4FD446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="STG-Sep25" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Sep25'!$A$20:$D$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Sep25'!$A$20:$O$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDN-June25'!$A$18:$P$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="192">
   <si>
     <t>Project Code</t>
   </si>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1685,9 +1685,57 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,51 +1751,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1763,30 +1766,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,6 +1782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1834,6 +1825,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1854,6 +1855,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1864,6 +1875,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1874,6 +1895,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1884,6 +1925,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1904,6 +1955,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1914,6 +1975,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1924,6 +1995,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1934,6 +2015,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1944,6 +2035,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1964,6 +2065,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1974,6 +2085,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1984,6 +2105,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1994,6 +2125,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2004,6 +2145,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2024,6 +2175,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2034,6 +2195,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2044,6 +2215,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2054,6 +2245,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2064,6 +2265,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2074,6 +2315,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2094,6 +2345,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2134,6 +2395,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2144,6 +2415,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2154,6 +2435,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2164,6 +2475,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2174,6 +2495,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2204,6 +2535,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2224,6 +2585,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2234,6 +2605,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2254,6 +2635,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2264,6 +2655,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2274,6 +2675,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2294,6 +2715,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2324,6 +2765,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2334,6 +2785,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2344,6 +2805,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2444,6 +2915,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2454,6 +2975,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2474,6 +3015,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2484,6 +3035,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2494,6 +3105,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2514,6 +3135,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2534,6 +3175,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2554,6 +3205,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2594,6 +3255,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2604,6 +3275,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2624,6 +3305,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2634,6 +3335,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2654,6 +3365,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2674,6 +3395,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2704,751 +3435,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4014,6 +4005,31 @@
     </dxf>
     <dxf>
       <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="17"/>
       </font>
       <fill>
@@ -4021,31 +4037,6 @@
           <bgColor indexed="42"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4876,137 +4867,137 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="175" t="s">
+      <c r="D18" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="172" t="s">
+      <c r="F18" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="187" t="s">
+      <c r="H18" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="180" t="s">
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="172" t="s">
+      <c r="R18" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="181" t="s">
+      <c r="T18" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="183"/>
-      <c r="AA18" s="181" t="s">
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="184"/>
+      <c r="AA18" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="184" t="s">
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="184"/>
+      <c r="AG18" s="185" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="192" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192" t="s">
+      <c r="I19" s="177"/>
+      <c r="J19" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192" t="s">
+      <c r="K19" s="177"/>
+      <c r="L19" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="192"/>
-      <c r="N19" s="188" t="s">
+      <c r="M19" s="177"/>
+      <c r="N19" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="188" t="s">
+      <c r="O19" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="180"/>
-      <c r="R19" s="186"/>
-      <c r="T19" s="178" t="s">
+      <c r="P19" s="181"/>
+      <c r="R19" s="188"/>
+      <c r="T19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="178" t="s">
+      <c r="U19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="178" t="s">
+      <c r="V19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="178" t="s">
+      <c r="W19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="178" t="s">
+      <c r="X19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="178" t="s">
+      <c r="AA19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="178" t="s">
+      <c r="AB19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="178" t="s">
+      <c r="AC19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="178" t="s">
+      <c r="AD19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="178" t="s">
+      <c r="AE19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="185"/>
+      <c r="AG19" s="186"/>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="177"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="176"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="192"/>
       <c r="H20" s="102" t="s">
         <v>10</v>
       </c>
@@ -5025,25 +5016,25 @@
       <c r="M20" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="189"/>
-      <c r="O20" s="189"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
       <c r="P20" s="44" t="s">
         <v>52</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="179"/>
-      <c r="U20" s="179"/>
-      <c r="V20" s="179"/>
-      <c r="W20" s="179"/>
-      <c r="X20" s="179"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="180"/>
+      <c r="X20" s="180"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="179"/>
-      <c r="AB20" s="179"/>
-      <c r="AC20" s="179"/>
-      <c r="AD20" s="179"/>
-      <c r="AE20" s="179"/>
+      <c r="AA20" s="180"/>
+      <c r="AB20" s="180"/>
+      <c r="AC20" s="180"/>
+      <c r="AD20" s="180"/>
+      <c r="AE20" s="180"/>
       <c r="AF20" s="19" t="s">
         <v>52</v>
       </c>
@@ -5314,7 +5305,7 @@
       <c r="D25" s="94"/>
       <c r="E25" s="116"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="190"/>
+      <c r="G25" s="173"/>
       <c r="H25" s="114"/>
       <c r="I25" s="114"/>
       <c r="J25" s="114"/>
@@ -5372,7 +5363,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="117"/>
       <c r="F26" s="111"/>
-      <c r="G26" s="191"/>
+      <c r="G26" s="174"/>
       <c r="H26" s="114"/>
       <c r="I26" s="114"/>
       <c r="J26" s="114"/>
@@ -5727,16 +5718,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5749,13 +5737,16 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
@@ -5830,17 +5821,17 @@
     <cfRule type="expression" dxfId="223" priority="1243" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B26)+COUNTIF($D$142:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="1245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="1244" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="1246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1245" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="1247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="1246" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="1247" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="1244" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
@@ -5857,55 +5848,55 @@
     <cfRule type="duplicateValues" dxfId="212" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="211" priority="1221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="1220" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="1221" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="1220" stopIfTrue="1">
-      <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="209" priority="1223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="1222" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="1223" stopIfTrue="1">
       <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="1224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1224" stopIfTrue="1">
       <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="1225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="1225" stopIfTrue="1">
       <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="1226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="1226" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="1227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="1227" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="1228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="1228" stopIfTrue="1">
       <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="1229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="1229" stopIfTrue="1">
       <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="1230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="1230" stopIfTrue="1">
       <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="1231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="1231" stopIfTrue="1">
       <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="1232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="1232" stopIfTrue="1">
       <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="1233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="1233" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="1234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="1234" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="1235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="1235" stopIfTrue="1">
       <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="1222" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -6031,7 +6022,7 @@
       <c r="Q4" s="72">
         <v>0</v>
       </c>
-      <c r="R4" s="193" t="s">
+      <c r="R4" s="194" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6074,14 +6065,14 @@
       <c r="Q5" s="72">
         <v>0</v>
       </c>
-      <c r="R5" s="194"/>
+      <c r="R5" s="195"/>
     </row>
     <row r="6" spans="2:18" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="75">
         <v>160</v>
       </c>
@@ -6124,10 +6115,10 @@
   <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:O20"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6447,86 +6438,86 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="187" t="s">
+      <c r="J18" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
       <c r="P18" s="165"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="204"/>
-      <c r="T18" s="172" t="s">
+      <c r="Q18" s="199"/>
+      <c r="R18" s="200"/>
+      <c r="T18" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="181" t="s">
+      <c r="V18" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="183"/>
-      <c r="AC18" s="181" t="s">
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="184"/>
+      <c r="AC18" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184" t="s">
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="185" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="192" t="s">
+      <c r="K19" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="192"/>
+      <c r="L19" s="177"/>
       <c r="O19" s="166"/>
       <c r="P19" s="161"/>
       <c r="Q19" s="164"/>
       <c r="R19" s="161"/>
-      <c r="T19" s="186"/>
-      <c r="V19" s="178" t="s">
+      <c r="T19" s="188"/>
+      <c r="V19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="178" t="s">
+      <c r="W19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="178" t="s">
+      <c r="X19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="178" t="s">
+      <c r="Y19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="178" t="s">
+      <c r="Z19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AC19" s="178" t="s">
+      <c r="AC19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="AD19" s="178" t="s">
+      <c r="AD19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AE19" s="178" t="s">
+      <c r="AE19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="AF19" s="178" t="s">
+      <c r="AF19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AG19" s="178" t="s">
+      <c r="AG19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="AH19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AI19" s="185"/>
+      <c r="AI19" s="186"/>
     </row>
     <row r="20" spans="1:37" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="168" t="s">
@@ -6580,17 +6571,17 @@
       <c r="T20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="198"/>
-      <c r="Z20" s="198"/>
+      <c r="V20" s="201"/>
+      <c r="W20" s="201"/>
+      <c r="X20" s="201"/>
+      <c r="Y20" s="201"/>
+      <c r="Z20" s="201"/>
       <c r="AA20" s="44"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="198"/>
-      <c r="AE20" s="198"/>
-      <c r="AF20" s="198"/>
-      <c r="AG20" s="198"/>
+      <c r="AC20" s="201"/>
+      <c r="AD20" s="201"/>
+      <c r="AE20" s="201"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="201"/>
       <c r="AH20" s="44" t="s">
         <v>20</v>
       </c>
@@ -6701,7 +6692,7 @@
       <c r="D22" s="130">
         <v>161.35499999999999</v>
       </c>
-      <c r="E22" s="202" t="s">
+      <c r="E22" s="140" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="159">
@@ -6789,12 +6780,16 @@
       <c r="D23" s="130">
         <v>101.69</v>
       </c>
-      <c r="E23" s="202"/>
+      <c r="E23" s="140" t="s">
+        <v>83</v>
+      </c>
       <c r="F23" s="140"/>
       <c r="G23" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="140"/>
+      <c r="H23" s="140" t="s">
+        <v>171</v>
+      </c>
       <c r="I23" s="140"/>
       <c r="J23" s="87">
         <v>45911</v>
@@ -6869,7 +6864,7 @@
       <c r="D24" s="130">
         <v>161.35499999999999</v>
       </c>
-      <c r="E24" s="202" t="s">
+      <c r="E24" s="140" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="159">
@@ -6957,12 +6952,16 @@
       <c r="D25" s="130">
         <v>68.677999999999997</v>
       </c>
-      <c r="E25" s="202"/>
+      <c r="E25" s="140" t="s">
+        <v>111</v>
+      </c>
       <c r="F25" s="140"/>
       <c r="G25" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="140"/>
+      <c r="H25" s="140" t="s">
+        <v>173</v>
+      </c>
       <c r="I25" s="140"/>
       <c r="J25" s="87">
         <v>45922</v>
@@ -7038,7 +7037,7 @@
       <c r="D26" s="130">
         <v>87.012</v>
       </c>
-      <c r="E26" s="199" t="s">
+      <c r="E26" s="172" t="s">
         <v>141</v>
       </c>
       <c r="F26" s="159">
@@ -7127,12 +7126,16 @@
       <c r="D27" s="130">
         <v>110.696</v>
       </c>
-      <c r="E27" s="201"/>
+      <c r="E27" s="172" t="s">
+        <v>141</v>
+      </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="140"/>
+      <c r="H27" s="140" t="s">
+        <v>174</v>
+      </c>
       <c r="I27" s="140"/>
       <c r="J27" s="87">
         <v>45914</v>
@@ -7207,7 +7210,7 @@
       <c r="D28" s="130">
         <v>97.703999999999994</v>
       </c>
-      <c r="E28" s="199" t="s">
+      <c r="E28" s="172" t="s">
         <v>142</v>
       </c>
       <c r="F28" s="159">
@@ -7295,12 +7298,16 @@
       <c r="D29" s="130">
         <v>110.575</v>
       </c>
-      <c r="E29" s="201"/>
+      <c r="E29" s="172" t="s">
+        <v>142</v>
+      </c>
       <c r="F29" s="140"/>
       <c r="G29" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="140"/>
+      <c r="H29" s="140" t="s">
+        <v>175</v>
+      </c>
       <c r="I29" s="140"/>
       <c r="J29" s="87">
         <v>45915</v>
@@ -7376,7 +7383,7 @@
       <c r="D30" s="130">
         <v>110.696</v>
       </c>
-      <c r="E30" s="202" t="s">
+      <c r="E30" s="140" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="159">
@@ -7464,12 +7471,16 @@
       <c r="D31" s="130">
         <v>64.481999999999999</v>
       </c>
-      <c r="E31" s="202"/>
+      <c r="E31" s="140" t="s">
+        <v>185</v>
+      </c>
       <c r="F31" s="140"/>
       <c r="G31" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="140"/>
+      <c r="H31" s="140" t="s">
+        <v>173</v>
+      </c>
       <c r="I31" s="140"/>
       <c r="J31" s="87">
         <v>45922</v>
@@ -7544,7 +7555,7 @@
       <c r="D32" s="130">
         <v>89.712999999999994</v>
       </c>
-      <c r="E32" s="202" t="s">
+      <c r="E32" s="140" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="159">
@@ -7633,12 +7644,16 @@
       <c r="D33" s="130">
         <v>43.776000000000003</v>
       </c>
-      <c r="E33" s="202"/>
+      <c r="E33" s="140" t="s">
+        <v>120</v>
+      </c>
       <c r="F33" s="159"/>
       <c r="G33" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="140"/>
+      <c r="H33" s="140" t="s">
+        <v>176</v>
+      </c>
       <c r="I33" s="140"/>
       <c r="J33" s="87">
         <v>45917</v>
@@ -7713,10 +7728,12 @@
       <c r="D34" s="130">
         <v>118.43</v>
       </c>
-      <c r="E34" s="202" t="s">
+      <c r="E34" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="159"/>
+      <c r="F34" s="159">
+        <v>34</v>
+      </c>
       <c r="G34" s="140" t="s">
         <v>169</v>
       </c>
@@ -7801,9 +7818,8 @@
       <c r="D35" s="151">
         <v>90.125</v>
       </c>
-      <c r="E35" s="202"/>
-      <c r="F35" s="159">
-        <v>34</v>
+      <c r="E35" s="140" t="s">
+        <v>113</v>
       </c>
       <c r="G35" s="140" t="s">
         <v>169</v>
@@ -7887,14 +7903,18 @@
       <c r="D36" s="130">
         <v>55.338999999999999</v>
       </c>
-      <c r="E36" s="199" t="s">
+      <c r="E36" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="159">
+        <v>33</v>
+      </c>
       <c r="G36" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H36" s="140"/>
+      <c r="H36" s="140" t="s">
+        <v>182</v>
+      </c>
       <c r="I36" s="140" t="s">
         <v>172</v>
       </c>
@@ -7975,9 +7995,8 @@
       <c r="D37" s="151">
         <v>90.125</v>
       </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="159">
-        <v>33</v>
+      <c r="E37" s="172" t="s">
+        <v>114</v>
       </c>
       <c r="G37" s="140" t="s">
         <v>169</v>
@@ -8059,7 +8078,7 @@
       <c r="D38" s="130">
         <v>110.575</v>
       </c>
-      <c r="E38" s="199" t="s">
+      <c r="E38" s="172" t="s">
         <v>143</v>
       </c>
       <c r="F38" s="159">
@@ -8147,12 +8166,16 @@
       <c r="D39" s="130">
         <v>75.897000000000006</v>
       </c>
-      <c r="E39" s="201"/>
+      <c r="E39" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="F39" s="140"/>
       <c r="G39" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="140"/>
+      <c r="H39" s="140" t="s">
+        <v>174</v>
+      </c>
       <c r="I39" s="140"/>
       <c r="J39" s="87">
         <v>45914</v>
@@ -8227,12 +8250,16 @@
       <c r="D40" s="8">
         <v>42.374000000000002</v>
       </c>
-      <c r="E40" s="200"/>
+      <c r="E40" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="F40" s="140"/>
       <c r="G40" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="140"/>
+      <c r="H40" s="140" t="s">
+        <v>174</v>
+      </c>
       <c r="I40" s="140"/>
       <c r="J40" s="87">
         <v>45922</v>
@@ -8307,7 +8334,7 @@
       <c r="D41" s="8">
         <v>73.430000000000007</v>
       </c>
-      <c r="E41" s="199" t="s">
+      <c r="E41" s="172" t="s">
         <v>112</v>
       </c>
       <c r="F41" s="159">
@@ -8395,12 +8422,16 @@
       <c r="D42" s="8">
         <v>97.228999999999999</v>
       </c>
-      <c r="E42" s="201"/>
+      <c r="E42" s="172" t="s">
+        <v>112</v>
+      </c>
       <c r="F42" s="140"/>
       <c r="G42" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H42" s="140"/>
+      <c r="H42" s="140" t="s">
+        <v>179</v>
+      </c>
       <c r="I42" s="140"/>
       <c r="J42" s="87">
         <v>45913</v>
@@ -8475,7 +8506,7 @@
       <c r="D43" s="8">
         <v>42.374000000000002</v>
       </c>
-      <c r="E43" s="199" t="s">
+      <c r="E43" s="172" t="s">
         <v>144</v>
       </c>
       <c r="F43" s="159">
@@ -8563,12 +8594,16 @@
       <c r="D44" s="151">
         <v>90.125</v>
       </c>
-      <c r="E44" s="200"/>
+      <c r="E44" s="172" t="s">
+        <v>144</v>
+      </c>
       <c r="F44" s="140"/>
       <c r="G44" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="140"/>
+      <c r="H44" s="140" t="s">
+        <v>180</v>
+      </c>
       <c r="I44" s="140"/>
       <c r="J44" s="87">
         <v>45911</v>
@@ -8643,7 +8678,7 @@
       <c r="D45" s="8">
         <v>53.323999999999998</v>
       </c>
-      <c r="E45" s="199" t="s">
+      <c r="E45" s="172" t="s">
         <v>145</v>
       </c>
       <c r="F45" s="140" t="s">
@@ -8727,7 +8762,9 @@
       <c r="D46" s="8">
         <v>73.426000000000002</v>
       </c>
-      <c r="E46" s="200"/>
+      <c r="E46" s="172" t="s">
+        <v>145</v>
+      </c>
       <c r="F46" s="140"/>
       <c r="G46" s="140" t="s">
         <v>169</v>
@@ -8807,7 +8844,7 @@
       <c r="D47" s="8">
         <v>53.323999999999998</v>
       </c>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="172" t="s">
         <v>146</v>
       </c>
       <c r="F47" s="159">
@@ -8895,12 +8932,16 @@
       <c r="D48" s="8">
         <v>73.426000000000002</v>
       </c>
-      <c r="E48" s="200"/>
+      <c r="E48" s="172" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" s="140"/>
       <c r="G48" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H48" s="140"/>
+      <c r="H48" s="140" t="s">
+        <v>183</v>
+      </c>
       <c r="I48" s="140"/>
       <c r="J48" s="87">
         <v>45915</v>
@@ -8975,7 +9016,7 @@
       <c r="D49" s="8">
         <v>42.374000000000002</v>
       </c>
-      <c r="E49" s="199" t="s">
+      <c r="E49" s="172" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="159">
@@ -9063,12 +9104,16 @@
       <c r="D50" s="8">
         <v>53.323999999999998</v>
       </c>
-      <c r="E50" s="200"/>
+      <c r="E50" s="172" t="s">
+        <v>147</v>
+      </c>
       <c r="F50" s="140"/>
       <c r="G50" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="140"/>
+      <c r="H50" s="140" t="s">
+        <v>183</v>
+      </c>
       <c r="I50" s="140"/>
       <c r="J50" s="87">
         <v>45915</v>
@@ -9254,7 +9299,9 @@
       <c r="AI53" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <autoFilter ref="A20:O50" xr:uid="{035547A7-D1B5-4A88-918A-3701F4B0E907}"/>
+  <mergeCells count="17">
+    <mergeCell ref="T18:T19"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="Q18:R18"/>
@@ -9271,50 +9318,35 @@
     <mergeCell ref="AE19:AE20"/>
     <mergeCell ref="AF19:AF20"/>
     <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="T18:T19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="194" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B29 B31:B50">
     <cfRule type="duplicateValues" dxfId="192" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="191" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="236"/>
     <cfRule type="duplicateValues" dxfId="190" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="188" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="187" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="56"/>
     <cfRule type="duplicateValues" dxfId="186" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31 B22 B24:B26 B33">
     <cfRule type="duplicateValues" dxfId="183" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="182" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
     <cfRule type="duplicateValues" dxfId="180" priority="232"/>
@@ -9326,16 +9358,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
     <cfRule type="duplicateValues" dxfId="176" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 B28:B29">
-    <cfRule type="duplicateValues" dxfId="173" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B50">
-    <cfRule type="duplicateValues" dxfId="171" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="169" priority="2054"/>
@@ -9381,22 +9413,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J31">
-    <cfRule type="containsText" dxfId="162" priority="2" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="162" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J33">
-    <cfRule type="containsText" dxfId="160" priority="32" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J32)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="30" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="31" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="30" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J32)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="32" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J35 K35 L33:N33 K34:N34">
@@ -9413,11 +9445,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J42">
-    <cfRule type="containsText" dxfId="154" priority="22" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="154" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="22" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:J42">
@@ -9427,64 +9459,64 @@
     <cfRule type="containsText" dxfId="151" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="20" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="150" priority="19" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="20" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="19" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:J50">
-    <cfRule type="containsText" dxfId="148" priority="7" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
+    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="containsText" dxfId="145" priority="169" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="145" priority="162" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="163" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="164" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="166" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="167" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="140" priority="167" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="166" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="139" priority="168" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="138" priority="169" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="163" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="137" priority="210" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="211" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="210" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="containsText" dxfId="135" priority="146" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="135" priority="145" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:K40">
@@ -9493,11 +9525,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:K50">
-    <cfRule type="containsText" dxfId="132" priority="4" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="4" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:N21">
@@ -9509,22 +9541,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:N23 L25:N25">
-    <cfRule type="containsText" dxfId="128" priority="225" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="128" priority="224" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="225" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="224" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="226" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:N35">
-    <cfRule type="containsText" dxfId="125" priority="161" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="125" priority="160" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="161" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="160" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:N40">
@@ -9536,42 +9568,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:N42">
-    <cfRule type="containsText" dxfId="121" priority="111" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="118" priority="113" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="114" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="110" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="112" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="113" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:N51">
-    <cfRule type="containsText" dxfId="115" priority="892" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J51)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="841" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="891" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="841" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J51)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="892" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K25">
-    <cfRule type="containsText" dxfId="112" priority="198" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="112" priority="197" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="197" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39 J36:J39">
@@ -9601,11 +9633,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:N23">
-    <cfRule type="containsText" dxfId="104" priority="216" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="104" priority="215" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="216" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="215" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:N33">
@@ -9614,11 +9646,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:N34">
-    <cfRule type="containsText" dxfId="101" priority="201" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="101" priority="200" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="201" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="200" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:N31">
@@ -9630,14 +9662,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:N33">
-    <cfRule type="containsText" dxfId="97" priority="183" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K32)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="181" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="96" priority="182" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="181" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K32)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:N37">
@@ -9659,53 +9691,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:N42">
-    <cfRule type="containsText" dxfId="90" priority="119" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="117" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="88" priority="117" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="115" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="87" priority="118" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="120" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="86" priority="119" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="120" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="118" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="116" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:N44">
     <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="83" priority="100" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="100" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:N46">
-    <cfRule type="containsText" dxfId="81" priority="92" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K45)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="90" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K45)))</formula>
+    <cfRule type="containsText" dxfId="79" priority="92" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:N48">
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K47)))</formula>
@@ -9723,11 +9755,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:N21">
-    <cfRule type="containsText" dxfId="72" priority="53" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:N25">
@@ -9739,39 +9771,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:N25">
-    <cfRule type="containsText" dxfId="68" priority="196" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="194" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="195" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="194" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="196" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:N29">
-    <cfRule type="containsText" dxfId="65" priority="175" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="65" priority="170" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="177" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="64" priority="171" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="172" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="176" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="62" priority="173" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="170" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="61" priority="174" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="175" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="171" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="59" priority="176" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="172" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="173" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="174" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="58" priority="177" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9796,11 +9828,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:N33 J42:N42">
-    <cfRule type="containsText" dxfId="51" priority="221" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="51" priority="219" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="221" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="219" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:N33">
@@ -9823,53 +9855,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:N35">
-    <cfRule type="containsText" dxfId="44" priority="153" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="151" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="152" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="151" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="42" priority="153" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="154" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="155" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="40" priority="155" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="159" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="156" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="154" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="38" priority="159" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:N37">
-    <cfRule type="containsText" dxfId="37" priority="158" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="37" priority="157" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="158" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="157" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:N40">
-    <cfRule type="containsText" dxfId="35" priority="132" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="35" priority="131" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="131" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:N40">
     <cfRule type="containsText" dxfId="33" priority="122" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="124" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="32" priority="123" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="124" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="123" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="125" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L40)))</formula>
@@ -9885,68 +9917,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:N50">
-    <cfRule type="containsText" dxfId="26" priority="103" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="26" priority="102" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="103" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="102" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:N44">
     <cfRule type="containsText" dxfId="24" priority="96" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="104" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="23" priority="97" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="98" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="104" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="106" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="98" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="105" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L44)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="106" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:N46">
-    <cfRule type="containsText" dxfId="18" priority="95" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="18" priority="87" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="88" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="94" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="93" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="94" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="93" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="89" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="13" priority="95" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="87" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:N48">
-    <cfRule type="containsText" dxfId="12" priority="85" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="79" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="84" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="80" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="79" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="84" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="85" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="78" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="86" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L48)))</formula>
@@ -9956,20 +9988,20 @@
     <cfRule type="containsText" dxfId="6" priority="67" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="69" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="5" priority="68" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="69" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="77" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="3" priority="75" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="76" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="77" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="76" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="75" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="68" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -10271,118 +10303,118 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="172" t="s">
+      <c r="D18" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="175" t="s">
+      <c r="E18" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="180" t="s">
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="172" t="s">
+      <c r="M18" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="181" t="s">
+      <c r="O18" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="183"/>
-      <c r="V18" s="181" t="s">
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="184"/>
+      <c r="V18" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="184" t="s">
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="185" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="206" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="207" t="s">
+      <c r="G19" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="208"/>
-      <c r="I19" s="207" t="s">
+      <c r="H19" s="204"/>
+      <c r="I19" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="208"/>
-      <c r="K19" s="180"/>
-      <c r="M19" s="186"/>
-      <c r="O19" s="178" t="s">
+      <c r="J19" s="204"/>
+      <c r="K19" s="181"/>
+      <c r="M19" s="188"/>
+      <c r="O19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="178" t="s">
+      <c r="P19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="178" t="s">
+      <c r="Q19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="178" t="s">
+      <c r="R19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="178" t="s">
+      <c r="S19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="178" t="s">
+      <c r="V19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="178" t="s">
+      <c r="W19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="178" t="s">
+      <c r="X19" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="178" t="s">
+      <c r="Y19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="178" t="s">
+      <c r="Z19" s="179" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="185"/>
+      <c r="AB19" s="186"/>
     </row>
     <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="206"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="202"/>
       <c r="G20" s="102" t="s">
         <v>10</v>
       </c>
@@ -10401,17 +10433,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="179"/>
-      <c r="P20" s="179"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="179"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="179"/>
-      <c r="W20" s="179"/>
-      <c r="X20" s="179"/>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="179"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="180"/>
+      <c r="X20" s="180"/>
+      <c r="Y20" s="180"/>
+      <c r="Z20" s="180"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -11417,6 +11449,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -11430,18 +11474,6 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">

--- a/Test/Micro Plan - TA-416 Sep'25.xlsx
+++ b/Test/Micro Plan - TA-416 Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5A3EA-8E12-4463-9DCB-3AC68C4FD446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED8A36-AD72-4DAA-9890-2BE45249486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="STG-Sep25" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Sep25'!$A$20:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Sep25'!$A$1:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDN-June25'!$A$18:$P$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="192">
   <si>
     <t>Project Code</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Erection</t>
-  </si>
-  <si>
     <t>Tack-welding</t>
   </si>
   <si>
@@ -557,9 +554,6 @@
     <t>D N Prasad</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>Rupesh</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
     <t>Somenath</t>
   </si>
   <si>
-    <t>Water logged</t>
-  </si>
-  <si>
     <t>Madhusudan</t>
   </si>
   <si>
@@ -621,13 +612,22 @@
   </si>
   <si>
     <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Location No.</t>
+  </si>
+  <si>
+    <t>Material Feeding</t>
+  </si>
+  <si>
+    <t>Revenue Realised</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -636,7 +636,6 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -893,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1081,71 +1080,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1176,7 +1110,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1324,12 +1258,6 @@
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1433,260 +1361,245 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,63 +1607,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1766,13 +1625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,8 +1637,74 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4628,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -4636,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -4653,18 +4572,18 @@
       <c r="E4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="53">
         <v>302</v>
       </c>
       <c r="J5" s="4"/>
@@ -4673,13 +4592,13 @@
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="56">
+        <v>90</v>
+      </c>
+      <c r="E6" s="54">
         <v>301</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="M6" s="112"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
@@ -4691,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="M7" s="112"/>
+      <c r="M7" s="98"/>
     </row>
     <row r="8" spans="1:13" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
@@ -4838,16 +4757,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="52">
         <f>SUM(E11:E15)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <f>E16/E9</f>
         <v>1</v>
       </c>
@@ -4855,7 +4774,7 @@
         <f>SUM(G11:G15)</f>
         <v>4925228.8899999997</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="50">
         <f>G16/G9</f>
         <v>1</v>
       </c>
@@ -4867,257 +4786,257 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="187" t="s">
+      <c r="E18" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="191" t="s">
+      <c r="G18" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="178" t="s">
+      <c r="H18" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="181" t="s">
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="187" t="s">
+      <c r="R18" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="182" t="s">
+      <c r="T18" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="184"/>
-      <c r="AA18" s="182" t="s">
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="159"/>
+      <c r="AA18" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="185" t="s">
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="160" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="192"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="177" t="s">
+      <c r="A19" s="152"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177" t="s">
+      <c r="I19" s="168"/>
+      <c r="J19" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177" t="s">
+      <c r="K19" s="168"/>
+      <c r="L19" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="177"/>
-      <c r="N19" s="175" t="s">
+      <c r="M19" s="168"/>
+      <c r="N19" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="175" t="s">
+      <c r="O19" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="181"/>
-      <c r="R19" s="188"/>
-      <c r="T19" s="179" t="s">
+      <c r="P19" s="156"/>
+      <c r="R19" s="162"/>
+      <c r="T19" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="179" t="s">
+      <c r="U19" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="179" t="s">
+      <c r="V19" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="179" t="s">
+      <c r="W19" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="179" t="s">
+      <c r="X19" s="154" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="179" t="s">
+      <c r="AA19" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="179" t="s">
+      <c r="AB19" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="179" t="s">
+      <c r="AC19" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="179" t="s">
+      <c r="AD19" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="179" t="s">
+      <c r="AE19" s="154" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="186"/>
+      <c r="AG19" s="161"/>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="193"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="102" t="s">
+      <c r="A20" s="153"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="102" t="s">
+      <c r="L20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="176"/>
-      <c r="O20" s="176"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
       <c r="P20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="180"/>
-      <c r="W20" s="180"/>
-      <c r="X20" s="180"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="180"/>
-      <c r="AB20" s="180"/>
-      <c r="AC20" s="180"/>
-      <c r="AD20" s="180"/>
-      <c r="AE20" s="180"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="155"/>
       <c r="AF20" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="111">
+      <c r="A21" s="97">
         <v>1</v>
       </c>
-      <c r="B21" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="118" t="s">
+      <c r="B21" s="110" t="s">
         <v>86</v>
       </c>
+      <c r="C21" s="104" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="103">
+        <v>261.19600000000003</v>
+      </c>
+      <c r="F21" s="97">
+        <v>15.029</v>
+      </c>
+      <c r="G21" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="117">
-        <v>261.19600000000003</v>
-      </c>
-      <c r="F21" s="111">
-        <v>15.029</v>
-      </c>
-      <c r="G21" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="114">
+      <c r="H21" s="100">
         <v>45798</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I21" s="100">
         <v>45801</v>
       </c>
-      <c r="J21" s="114">
+      <c r="J21" s="100">
         <v>45802</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="100">
         <v>45803</v>
       </c>
-      <c r="L21" s="114">
+      <c r="L21" s="100">
         <v>45804</v>
       </c>
-      <c r="M21" s="114">
+      <c r="M21" s="100">
         <v>45809</v>
       </c>
-      <c r="N21" s="114">
+      <c r="N21" s="100">
         <v>45810</v>
       </c>
-      <c r="O21" s="114">
+      <c r="O21" s="100">
         <v>45811</v>
       </c>
-      <c r="P21" s="115">
+      <c r="P21" s="101">
         <v>4925228.8899999997</v>
       </c>
-      <c r="R21" s="114">
+      <c r="R21" s="100">
         <v>45811</v>
       </c>
-      <c r="T21" s="99">
+      <c r="T21" s="91">
         <v>1</v>
       </c>
-      <c r="U21" s="99"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110">
+      <c r="U21" s="91"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96">
         <f>SUM(T21:X21)</f>
         <v>1</v>
       </c>
-      <c r="AA21" s="96">
+      <c r="AA21" s="88">
         <f>$P$21*T21</f>
         <v>4925228.8899999997</v>
       </c>
-      <c r="AB21" s="96">
+      <c r="AB21" s="88">
         <f>$P$21*U21</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="96">
+      <c r="AC21" s="88">
         <f t="shared" ref="AC21:AE21" si="2">$P$21*V21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="96">
+      <c r="AD21" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5135,38 +5054,38 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="111">
+      <c r="A22" s="97">
         <v>2</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="116"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="R22" s="98"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110">
+      <c r="G22" s="108"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="R22" s="90"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96">
         <f t="shared" ref="Y22:Y23" si="3">SUM(T22:X22)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
       <c r="AE22" s="15">
         <f>$P$22*X22</f>
         <v>0</v>
@@ -5181,47 +5100,47 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="111">
+      <c r="A23" s="97">
         <v>3</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
-      <c r="R23" s="98"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110">
+      <c r="B23" s="110"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="R23" s="90"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="96">
+      <c r="AA23" s="88">
         <f t="shared" ref="AA23:AA25" si="4">$P$21*T23</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="96">
+      <c r="AB23" s="88">
         <f t="shared" ref="AB23:AB26" si="5">$P$21*U23</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="96">
+      <c r="AC23" s="88">
         <f t="shared" ref="AC23:AC26" si="6">$P$21*V23</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="96">
+      <c r="AD23" s="88">
         <f>$P$23*W23</f>
         <v>0</v>
       </c>
@@ -5239,47 +5158,47 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="111">
+      <c r="A24" s="97">
         <v>4</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="R24" s="95"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97">
+      <c r="G24" s="108"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="R24" s="87"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89">
         <f t="shared" ref="Y24:Y29" si="9">SUM(T24:X24)</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="96">
+      <c r="AA24" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="96">
+      <c r="AB24" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="96">
+      <c r="AC24" s="88">
         <f>$P$24*V24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="96">
+      <c r="AD24" s="88">
         <f t="shared" ref="AD24:AD25" si="10">$P$21*W24</f>
         <v>0</v>
       </c>
@@ -5297,47 +5216,47 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="111">
+      <c r="A25" s="97">
         <v>5</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="116"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
-      <c r="R25" s="95"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97">
+      <c r="G25" s="166"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="R25" s="87"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="96">
+      <c r="AA25" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="96">
+      <c r="AB25" s="88">
         <f>$P$25*U25</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="96">
+      <c r="AC25" s="88">
         <f>$P$25*V25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="96">
+      <c r="AD25" s="88">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5355,47 +5274,47 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="111">
+      <c r="A26" s="97">
         <v>6</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="115"/>
-      <c r="R26" s="95"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97">
+      <c r="E26" s="103"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="R26" s="87"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="96">
+      <c r="AA26" s="88">
         <f>$P$26*T26</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="96">
+      <c r="AB26" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="96">
+      <c r="AC26" s="88">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="96">
+      <c r="AD26" s="88">
         <f>$P$26*W26</f>
         <v>0</v>
       </c>
@@ -5413,47 +5332,47 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="111">
+      <c r="A27" s="97">
         <v>7</v>
       </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="115"/>
-      <c r="R27" s="95"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97">
+      <c r="E27" s="103"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="R27" s="87"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="96">
+      <c r="AA27" s="88">
         <f>$P$21*T27</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="96">
+      <c r="AB27" s="88">
         <f>$P$27*U27</f>
         <v>0</v>
       </c>
-      <c r="AC27" s="96">
+      <c r="AC27" s="88">
         <f t="shared" ref="AC27:AE28" si="12">$P$21*V27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="96">
+      <c r="AD27" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5471,45 +5390,45 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="111"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="116"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
-      <c r="R28" s="98"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="97">
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="R28" s="90"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="96">
+      <c r="AA28" s="88">
         <f>$P$21*T28</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="96">
+      <c r="AB28" s="88">
         <f>$P$21*U28</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="96">
+      <c r="AC28" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="96">
+      <c r="AD28" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5528,21 +5447,21 @@
     </row>
     <row r="29" spans="1:33" ht="20.149999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="132"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="118"/>
       <c r="R29" s="12"/>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
@@ -5663,8 +5582,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="N32" s="57" t="s">
-        <v>89</v>
+      <c r="N32" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="P32" s="3">
         <f>7224.33*1</f>
@@ -5672,17 +5591,17 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="N33" s="57" t="s">
-        <v>90</v>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="N33" s="55" t="s">
+        <v>89</v>
       </c>
       <c r="P33" s="3">
         <f>7782.57*1</f>
@@ -5690,19 +5609,19 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="N34" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P34" s="81">
+      <c r="B34" s="78"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="N34" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="79">
         <f>SUM(P30:P33)</f>
         <v>4940235.79</v>
       </c>
@@ -5718,13 +5637,16 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5737,16 +5659,13 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
@@ -5927,171 +5846,171 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" ht="56" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="58" t="s">
+      <c r="F3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="I3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="K3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="M3" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="N3" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="O3" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="P3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="R3" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="62">
+        <v>45393</v>
+      </c>
+      <c r="H4" s="65">
+        <v>26.861743999999998</v>
+      </c>
+      <c r="I4" s="66">
+        <v>0.46323200000000003</v>
+      </c>
+      <c r="J4" s="67">
+        <v>26.861743999999998</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0</v>
+      </c>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69">
+        <v>0</v>
+      </c>
+      <c r="P4" s="72">
+        <v>26.861743999999998</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>0</v>
+      </c>
+      <c r="R4" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="60" t="s">
+    </row>
+    <row r="5" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="64">
-        <v>45393</v>
-      </c>
-      <c r="H4" s="67">
-        <v>26.861743999999998</v>
-      </c>
-      <c r="I4" s="68">
-        <v>0.46323200000000003</v>
-      </c>
-      <c r="J4" s="69">
-        <v>26.861743999999998</v>
-      </c>
-      <c r="K4" s="70">
-        <v>0</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71">
-        <v>0</v>
-      </c>
-      <c r="P4" s="74">
-        <v>26.861743999999998</v>
-      </c>
-      <c r="Q4" s="72">
-        <v>0</v>
-      </c>
-      <c r="R4" s="194" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="64">
+      <c r="G5" s="62">
         <v>45397</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="71">
         <v>126.634</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="66">
         <v>2.1840000000000002</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <v>126.634</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="74">
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="72">
         <v>126.634</v>
       </c>
-      <c r="Q5" s="72">
-        <v>0</v>
-      </c>
-      <c r="R5" s="195"/>
-    </row>
-    <row r="6" spans="2:18" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="196" t="s">
+      <c r="Q5" s="70">
+        <v>0</v>
+      </c>
+      <c r="R5" s="170"/>
+    </row>
+    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="75">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="73">
         <v>160</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76">
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="74">
         <f>SUM(P4:P5)</f>
         <v>153.495744</v>
       </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6112,13 +6031,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6135,3244 +6051,2194 @@
     <col min="11" max="11" width="14.7265625" style="4" customWidth="1"/>
     <col min="12" max="13" width="10.7265625" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15" max="18" width="15.54296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.1796875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
-    <col min="22" max="27" width="8.7265625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.1796875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.26953125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="10.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.26953125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.1796875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="38.1796875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="15.54296875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15.54296875" style="180" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="180" customWidth="1"/>
+    <col min="20" max="20" width="28.1796875" style="180" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="180" customWidth="1"/>
+    <col min="22" max="27" width="8.7265625" style="180" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" style="180" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" style="180" customWidth="1"/>
+    <col min="30" max="30" width="13.26953125" style="180" customWidth="1"/>
+    <col min="31" max="32" width="10.7265625" style="180" customWidth="1"/>
+    <col min="33" max="33" width="11.26953125" style="180" customWidth="1"/>
+    <col min="34" max="34" width="8.1796875" style="180" customWidth="1"/>
+    <col min="35" max="35" width="38.1796875" style="180" customWidth="1"/>
     <col min="36" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="197" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="178" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="116">
+        <v>97.703999999999994</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="199">
+        <v>30</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="122"/>
+      <c r="J2" s="85">
+        <v>45875</v>
+      </c>
+      <c r="K2" s="85">
+        <v>45875</v>
+      </c>
+      <c r="L2" s="141">
+        <v>45902</v>
+      </c>
+      <c r="M2" s="85">
+        <v>45903</v>
+      </c>
+      <c r="N2" s="85">
+        <v>45904</v>
+      </c>
+      <c r="O2" s="101">
+        <v>861022</v>
+      </c>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="116">
+        <v>161.35499999999999</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="140">
+        <v>32</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="85">
+        <v>45879</v>
+      </c>
+      <c r="K3" s="85">
+        <v>45879</v>
+      </c>
+      <c r="L3" s="85">
+        <v>45910</v>
+      </c>
+      <c r="M3" s="85">
+        <v>45911</v>
+      </c>
+      <c r="N3" s="85">
+        <v>45912</v>
+      </c>
+      <c r="O3" s="101">
+        <v>1610385.43</v>
+      </c>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="T3" s="181"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="182"/>
+    </row>
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="116">
+        <v>101.69</v>
+      </c>
+      <c r="E4" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="J4" s="85">
+        <v>45911</v>
+      </c>
+      <c r="K4" s="85">
+        <v>45911</v>
+      </c>
+      <c r="L4" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M4" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N4" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O4" s="101">
+        <v>875860</v>
+      </c>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="182"/>
+      <c r="T4" s="181"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="182"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="179"/>
+      <c r="AG4" s="179"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="182"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="116">
+        <v>161.35499999999999</v>
+      </c>
+      <c r="E5" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="140">
+        <v>32</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K5" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L5" s="85">
+        <v>45921</v>
+      </c>
+      <c r="M5" s="85">
+        <v>45922</v>
+      </c>
+      <c r="N5" s="85">
+        <v>45923</v>
+      </c>
+      <c r="O5" s="101">
+        <v>1610385.43</v>
+      </c>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="T5" s="185"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="184"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="116">
+        <v>68.677999999999997</v>
+      </c>
+      <c r="E6" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="122"/>
+      <c r="J6" s="85">
+        <v>45922</v>
+      </c>
+      <c r="K6" s="85">
+        <v>45922</v>
+      </c>
+      <c r="L6" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M6" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N6" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O6" s="101">
+        <v>712728.77</v>
+      </c>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="T6" s="187"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="189"/>
+      <c r="AE6" s="189"/>
+      <c r="AF6" s="189"/>
+      <c r="AG6" s="189"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="191"/>
+    </row>
+    <row r="7" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="116">
+        <v>87.012</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="140">
+        <v>25</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="85">
+        <v>45901</v>
+      </c>
+      <c r="K7" s="85">
+        <v>45901</v>
+      </c>
+      <c r="L7" s="85">
+        <v>45913</v>
+      </c>
+      <c r="M7" s="85">
+        <v>45914</v>
+      </c>
+      <c r="N7" s="85">
+        <v>45915</v>
+      </c>
+      <c r="O7" s="101">
+        <v>789838</v>
+      </c>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="T7" s="187"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="189"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="191"/>
+    </row>
+    <row r="8" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="116">
+        <v>110.696</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="122"/>
+      <c r="J8" s="85">
+        <v>45914</v>
+      </c>
+      <c r="K8" s="85">
+        <v>45914</v>
+      </c>
+      <c r="L8" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M8" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N8" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O8" s="101">
+        <v>1004656</v>
+      </c>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="T8" s="187"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="189"/>
+      <c r="AF8" s="189"/>
+      <c r="AG8" s="189"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="191"/>
+    </row>
+    <row r="9" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="116">
+        <v>97.703999999999994</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="140">
+        <v>45</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="85">
+        <v>45893</v>
+      </c>
+      <c r="K9" s="85">
+        <v>45893</v>
+      </c>
+      <c r="L9" s="85">
+        <v>45914</v>
+      </c>
+      <c r="M9" s="85">
+        <v>45915</v>
+      </c>
+      <c r="N9" s="85">
+        <v>45916</v>
+      </c>
+      <c r="O9" s="101">
+        <v>861022</v>
+      </c>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="T9" s="187"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AC9" s="189"/>
+      <c r="AD9" s="189"/>
+      <c r="AE9" s="189"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="189"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="191"/>
+    </row>
+    <row r="10" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="116">
+        <v>110.575</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="122"/>
+      <c r="J10" s="85">
+        <v>45915</v>
+      </c>
+      <c r="K10" s="85">
+        <v>45915</v>
+      </c>
+      <c r="L10" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M10" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N10" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O10" s="101">
+        <v>974538</v>
+      </c>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="T10" s="187"/>
+      <c r="V10" s="188"/>
+      <c r="W10" s="188"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="191"/>
+    </row>
+    <row r="11" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="116">
+        <v>110.696</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="140">
+        <v>34</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K11" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L11" s="85">
+        <v>45921</v>
+      </c>
+      <c r="M11" s="85">
+        <v>45922</v>
+      </c>
+      <c r="N11" s="85">
+        <v>45923</v>
+      </c>
+      <c r="O11" s="101">
+        <v>1492772</v>
+      </c>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="T11" s="187"/>
+      <c r="V11" s="188"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="189"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="191"/>
+    </row>
+    <row r="12" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="116">
+        <v>64.481999999999999</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="122"/>
+      <c r="J12" s="85">
+        <v>45922</v>
+      </c>
+      <c r="K12" s="85">
+        <v>45922</v>
+      </c>
+      <c r="L12" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M12" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N12" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O12" s="101">
+        <v>568304</v>
+      </c>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="T12" s="187"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="191"/>
+    </row>
+    <row r="13" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="116">
+        <v>89.712999999999994</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="140">
+        <v>33</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="85">
+        <v>45901</v>
+      </c>
+      <c r="K13" s="85">
+        <v>45901</v>
+      </c>
+      <c r="L13" s="85">
+        <v>45916</v>
+      </c>
+      <c r="M13" s="85">
+        <v>45917</v>
+      </c>
+      <c r="N13" s="85">
+        <v>45918</v>
+      </c>
+      <c r="O13" s="101">
+        <v>827835</v>
+      </c>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="T13" s="187"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="191"/>
+    </row>
+    <row r="14" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="116">
+        <v>43.776000000000003</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="140"/>
+      <c r="G14" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="122"/>
+      <c r="J14" s="85">
+        <v>45917</v>
+      </c>
+      <c r="K14" s="85">
+        <v>45917</v>
+      </c>
+      <c r="L14" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M14" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N14" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O14" s="101">
+        <v>371402</v>
+      </c>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="186"/>
+      <c r="T14" s="187"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="191"/>
+      <c r="AK14" s="101"/>
+    </row>
+    <row r="15" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="116">
+        <v>118.43</v>
+      </c>
+      <c r="E15" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="140">
+        <v>34</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="122"/>
+      <c r="J15" s="85">
+        <v>45885</v>
+      </c>
+      <c r="K15" s="85">
+        <v>45885</v>
+      </c>
+      <c r="L15" s="141">
+        <v>45905</v>
+      </c>
+      <c r="M15" s="85">
+        <v>45906</v>
+      </c>
+      <c r="N15" s="85">
+        <v>45907</v>
+      </c>
+      <c r="O15" s="101">
+        <v>1062230</v>
+      </c>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="T15" s="187"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="188"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="188"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="188"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="190"/>
+      <c r="AI15" s="191"/>
+    </row>
+    <row r="16" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="133">
+        <v>90.125</v>
+      </c>
+      <c r="E16" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="85">
+        <v>45906</v>
+      </c>
+      <c r="K16" s="85">
+        <v>45906</v>
+      </c>
+      <c r="L16" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M16" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N16" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O16" s="101">
+        <v>828626</v>
+      </c>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="T16" s="187"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="189"/>
+      <c r="AF16" s="189"/>
+      <c r="AG16" s="189"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="191"/>
+    </row>
+    <row r="17" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="116">
+        <v>55.338999999999999</v>
+      </c>
+      <c r="E17" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="140">
+        <v>33</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="85">
+        <v>45887</v>
+      </c>
+      <c r="K17" s="85">
+        <v>45887</v>
+      </c>
+      <c r="L17" s="141">
+        <v>45904</v>
+      </c>
+      <c r="M17" s="85">
+        <v>45905</v>
+      </c>
+      <c r="N17" s="85">
+        <v>45906</v>
+      </c>
+      <c r="O17" s="101">
+        <v>470947</v>
+      </c>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186"/>
+      <c r="T17" s="187"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="188"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="188"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="189"/>
+      <c r="AE17" s="189"/>
+      <c r="AF17" s="189"/>
+      <c r="AG17" s="189"/>
+      <c r="AH17" s="190"/>
+      <c r="AI17" s="191"/>
+    </row>
+    <row r="18" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="133">
+        <v>90.125</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="122"/>
+      <c r="J18" s="85">
+        <v>45905</v>
+      </c>
+      <c r="K18" s="85">
+        <v>45905</v>
+      </c>
+      <c r="L18" s="85">
+        <v>45914</v>
+      </c>
+      <c r="M18" s="85">
+        <v>45915</v>
+      </c>
+      <c r="N18" s="85">
+        <v>45916</v>
+      </c>
+      <c r="O18" s="101">
+        <v>828626</v>
+      </c>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="T18" s="187"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="190"/>
+      <c r="AI18" s="191"/>
+    </row>
+    <row r="19" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="116">
+        <v>110.575</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="140">
+        <v>40</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="85">
+        <v>45887</v>
+      </c>
+      <c r="K19" s="85">
+        <v>45887</v>
+      </c>
+      <c r="L19" s="85">
+        <v>45911</v>
+      </c>
+      <c r="M19" s="85">
+        <v>45912</v>
+      </c>
+      <c r="N19" s="85">
+        <v>45913</v>
+      </c>
+      <c r="O19" s="101">
+        <v>974538</v>
+      </c>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="T19" s="187"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="189"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="190"/>
+      <c r="AI19" s="191"/>
+    </row>
+    <row r="20" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="116">
+        <v>75.897000000000006</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="122"/>
+      <c r="J20" s="85">
+        <v>45914</v>
+      </c>
+      <c r="K20" s="85">
+        <v>45915</v>
+      </c>
+      <c r="L20" s="85">
+        <v>45921</v>
+      </c>
+      <c r="M20" s="85">
+        <v>45922</v>
+      </c>
+      <c r="N20" s="85">
+        <v>45923</v>
+      </c>
+      <c r="O20" s="101">
+        <v>669569.35</v>
+      </c>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186"/>
+      <c r="T20" s="187"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="188"/>
+      <c r="AC20" s="189"/>
+      <c r="AD20" s="189"/>
+      <c r="AE20" s="189"/>
+      <c r="AF20" s="189"/>
+      <c r="AG20" s="189"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
+    </row>
+    <row r="21" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42.374000000000002</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="122"/>
+      <c r="J21" s="85">
+        <v>45922</v>
+      </c>
+      <c r="K21" s="85">
+        <v>45922</v>
+      </c>
+      <c r="L21" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M21" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N21" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O21" s="101">
+        <v>359483</v>
+      </c>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
+      <c r="T21" s="187"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189"/>
+      <c r="AF21" s="189"/>
+      <c r="AG21" s="189"/>
+      <c r="AH21" s="190"/>
+      <c r="AI21" s="191"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B22" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="8">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="140">
+        <v>30</v>
+      </c>
+      <c r="G22" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="85">
+        <v>45901</v>
+      </c>
+      <c r="K22" s="85">
+        <v>45901</v>
+      </c>
+      <c r="L22" s="85">
+        <v>45912</v>
+      </c>
+      <c r="M22" s="85">
+        <v>45913</v>
+      </c>
+      <c r="N22" s="85">
+        <v>45914</v>
+      </c>
+      <c r="O22" s="101">
+        <v>666437</v>
+      </c>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186"/>
+      <c r="T22" s="187"/>
+      <c r="V22" s="188"/>
+      <c r="W22" s="188"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="188"/>
+      <c r="Z22" s="188"/>
+      <c r="AA22" s="188"/>
+      <c r="AC22" s="189"/>
+      <c r="AD22" s="189"/>
+      <c r="AE22" s="189"/>
+      <c r="AF22" s="189"/>
+      <c r="AG22" s="189"/>
+      <c r="AH22" s="190"/>
+      <c r="AI22" s="191"/>
+    </row>
+    <row r="23" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="D5" s="2" t="s">
+      <c r="B23" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="8">
+        <v>97.228999999999999</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="122"/>
+      <c r="J23" s="85">
+        <v>45913</v>
+      </c>
+      <c r="K23" s="85">
+        <v>45913</v>
+      </c>
+      <c r="L23" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M23" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N23" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O23" s="101">
+        <v>837742</v>
+      </c>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186"/>
+      <c r="T23" s="187"/>
+      <c r="V23" s="188"/>
+      <c r="W23" s="188"/>
+      <c r="X23" s="188"/>
+      <c r="Y23" s="188"/>
+      <c r="Z23" s="188"/>
+      <c r="AA23" s="188"/>
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189"/>
+      <c r="AE23" s="189"/>
+      <c r="AF23" s="189"/>
+      <c r="AG23" s="189"/>
+      <c r="AH23" s="190"/>
+      <c r="AI23" s="191"/>
+    </row>
+    <row r="24" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8">
+        <v>42.374000000000002</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="140">
+        <v>16</v>
+      </c>
+      <c r="G24" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K24" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L24" s="85">
+        <v>45910</v>
+      </c>
+      <c r="M24" s="85">
+        <v>45911</v>
+      </c>
+      <c r="N24" s="85">
+        <v>45912</v>
+      </c>
+      <c r="O24" s="101">
+        <v>359483</v>
+      </c>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="186"/>
+      <c r="V24" s="188"/>
+      <c r="W24" s="188"/>
+      <c r="X24" s="188"/>
+      <c r="Y24" s="188"/>
+      <c r="Z24" s="188"/>
+      <c r="AA24" s="188"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="190"/>
+      <c r="AI24" s="191"/>
+    </row>
+    <row r="25" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="133">
+        <v>90.125</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="122"/>
+      <c r="J25" s="85">
+        <v>45911</v>
+      </c>
+      <c r="K25" s="85">
+        <v>45911</v>
+      </c>
+      <c r="L25" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M25" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N25" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O25" s="101">
+        <v>828626</v>
+      </c>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="T25" s="187"/>
+      <c r="V25" s="188"/>
+      <c r="W25" s="188"/>
+      <c r="X25" s="188"/>
+      <c r="Y25" s="188"/>
+      <c r="Z25" s="188"/>
+      <c r="AA25" s="188"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189"/>
+      <c r="AE25" s="189"/>
+      <c r="AF25" s="189"/>
+      <c r="AG25" s="189"/>
+      <c r="AH25" s="190"/>
+      <c r="AI25" s="191"/>
+    </row>
+    <row r="26" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8">
+        <v>53.323999999999998</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="200">
+        <v>20</v>
+      </c>
+      <c r="G26" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K26" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L26" s="85">
+        <v>45914</v>
+      </c>
+      <c r="M26" s="85">
+        <v>45915</v>
+      </c>
+      <c r="N26" s="85">
+        <v>45916</v>
+      </c>
+      <c r="O26" s="101">
+        <v>450628</v>
+      </c>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="186"/>
+      <c r="T26" s="187"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="188"/>
+      <c r="AA26" s="188"/>
+      <c r="AC26" s="189"/>
+      <c r="AD26" s="189"/>
+      <c r="AE26" s="189"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="189"/>
+      <c r="AH26" s="190"/>
+      <c r="AI26" s="191"/>
+    </row>
+    <row r="27" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="8">
+        <v>73.426000000000002</v>
+      </c>
+      <c r="E27" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="122"/>
+      <c r="J27" s="85">
+        <v>45915</v>
+      </c>
+      <c r="K27" s="85">
+        <v>45915</v>
+      </c>
+      <c r="L27" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M27" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N27" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O27" s="101">
+        <v>666437</v>
+      </c>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="T27" s="187"/>
+      <c r="V27" s="188"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="188"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="188"/>
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189"/>
+      <c r="AE27" s="189"/>
+      <c r="AF27" s="189"/>
+      <c r="AG27" s="189"/>
+      <c r="AH27" s="190"/>
+      <c r="AI27" s="191"/>
+    </row>
+    <row r="28" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8">
+        <v>53.323999999999998</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="140">
+        <v>20</v>
+      </c>
+      <c r="G28" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K28" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L28" s="85">
+        <v>45914</v>
+      </c>
+      <c r="M28" s="85">
+        <v>45915</v>
+      </c>
+      <c r="N28" s="85">
+        <v>45916</v>
+      </c>
+      <c r="O28" s="101">
+        <v>450628</v>
+      </c>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="T28" s="187"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AC28" s="189"/>
+      <c r="AD28" s="189"/>
+      <c r="AE28" s="189"/>
+      <c r="AF28" s="189"/>
+      <c r="AG28" s="189"/>
+      <c r="AH28" s="190"/>
+      <c r="AI28" s="191"/>
+    </row>
+    <row r="29" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="8">
+        <v>73.426000000000002</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="122"/>
+      <c r="J29" s="85">
+        <v>45915</v>
+      </c>
+      <c r="K29" s="85">
+        <v>45915</v>
+      </c>
+      <c r="L29" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M29" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N29" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O29" s="101">
+        <v>666437</v>
+      </c>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="186"/>
+      <c r="T29" s="187"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189"/>
+      <c r="AE29" s="189"/>
+      <c r="AF29" s="189"/>
+      <c r="AG29" s="189"/>
+      <c r="AH29" s="190"/>
+      <c r="AI29" s="191"/>
+    </row>
+    <row r="30" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="E5" s="40">
-        <v>302</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="41">
-        <v>244</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30">
-        <f>E5-E6</f>
-        <v>58</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="39">
-        <v>45901</v>
-      </c>
-      <c r="E9" s="42">
+      <c r="B30" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="8">
+        <v>42.374000000000002</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="140">
+        <v>24</v>
+      </c>
+      <c r="G30" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="85">
+        <v>45899</v>
+      </c>
+      <c r="K30" s="85">
+        <v>45899</v>
+      </c>
+      <c r="L30" s="85">
+        <v>45914</v>
+      </c>
+      <c r="M30" s="85">
+        <v>45915</v>
+      </c>
+      <c r="N30" s="85">
+        <v>45916</v>
+      </c>
+      <c r="O30" s="101">
+        <v>359483</v>
+      </c>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="T30" s="187"/>
+      <c r="V30" s="188"/>
+      <c r="W30" s="188"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="188"/>
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="188"/>
+      <c r="AC30" s="189"/>
+      <c r="AD30" s="189"/>
+      <c r="AE30" s="189"/>
+      <c r="AF30" s="189"/>
+      <c r="AG30" s="189"/>
+      <c r="AH30" s="190"/>
+      <c r="AI30" s="191"/>
+    </row>
+    <row r="31" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="135">
-        <f>O52</f>
+      <c r="B31" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="8">
+        <v>53.323999999999998</v>
+      </c>
+      <c r="E31" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="122"/>
+      <c r="J31" s="85">
+        <v>45915</v>
+      </c>
+      <c r="K31" s="85">
+        <v>45915</v>
+      </c>
+      <c r="L31" s="85">
+        <v>45930</v>
+      </c>
+      <c r="M31" s="85">
+        <v>45931</v>
+      </c>
+      <c r="N31" s="85">
+        <v>45932</v>
+      </c>
+      <c r="O31" s="101">
+        <v>450628</v>
+      </c>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="T31" s="187"/>
+      <c r="V31" s="188"/>
+      <c r="W31" s="188"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="188"/>
+      <c r="Z31" s="188"/>
+      <c r="AA31" s="188"/>
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189"/>
+      <c r="AE31" s="189"/>
+      <c r="AF31" s="189"/>
+      <c r="AG31" s="189"/>
+      <c r="AH31" s="190"/>
+      <c r="AI31" s="191"/>
+    </row>
+    <row r="32" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="T32" s="187"/>
+      <c r="V32" s="188"/>
+      <c r="W32" s="188"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="188"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="189"/>
+      <c r="AE32" s="189"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="189"/>
+      <c r="AH32" s="190"/>
+      <c r="AI32" s="191"/>
+    </row>
+    <row r="33" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="T33" s="187"/>
+      <c r="V33" s="188"/>
+      <c r="W33" s="188"/>
+      <c r="X33" s="188"/>
+      <c r="Y33" s="188"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AC33" s="189"/>
+      <c r="AD33" s="189"/>
+      <c r="AE33" s="189"/>
+      <c r="AF33" s="189"/>
+      <c r="AG33" s="189"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="191"/>
+    </row>
+    <row r="34" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="T34" s="187"/>
+      <c r="V34" s="188"/>
+      <c r="W34" s="188"/>
+      <c r="X34" s="188"/>
+      <c r="Y34" s="188"/>
+      <c r="Z34" s="188"/>
+      <c r="AA34" s="188"/>
+      <c r="AC34" s="189"/>
+      <c r="AD34" s="189"/>
+      <c r="AE34" s="189"/>
+      <c r="AF34" s="189"/>
+      <c r="AG34" s="189"/>
+      <c r="AH34" s="190"/>
+      <c r="AI34" s="191"/>
+    </row>
+    <row r="35" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="T35" s="187"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="188"/>
+      <c r="AC35" s="189"/>
+      <c r="AD35" s="189"/>
+      <c r="AE35" s="189"/>
+      <c r="AF35" s="189"/>
+      <c r="AG35" s="189"/>
+      <c r="AH35" s="190"/>
+      <c r="AI35" s="191"/>
+    </row>
+    <row r="36" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="142"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="V36" s="188"/>
+      <c r="W36" s="188"/>
+      <c r="X36" s="188"/>
+      <c r="Y36" s="188"/>
+      <c r="Z36" s="188"/>
+      <c r="AA36" s="188"/>
+      <c r="AC36" s="189"/>
+      <c r="AD36" s="189"/>
+      <c r="AE36" s="189"/>
+      <c r="AF36" s="189"/>
+      <c r="AG36" s="189"/>
+      <c r="AH36" s="190"/>
+      <c r="AI36" s="191"/>
+    </row>
+    <row r="37" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="127">
+        <f>SUM(D2:D36)</f>
+        <v>2540.6569999999997</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="17">
+        <f>SUM(O2:O36)</f>
         <v>23491296.98</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="33">
-        <f>V52</f>
-        <v>3</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="46">
-        <f>E11/$E$9</f>
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="136">
-        <f>AC52</f>
-        <v>2394199</v>
-      </c>
-      <c r="L11" s="46">
-        <f>K11/$K$9</f>
-        <v>0.10191855315772352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="33">
-        <f>W52</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="46">
-        <f t="shared" ref="J12:J16" si="0">E12/$E$9</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="136">
-        <f>AD52</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
-        <f t="shared" ref="L12:L16" si="1">K12/$K$9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="33">
-        <f>X52</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="136">
-        <f>AE52</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="33">
-        <f>Y52</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="136">
-        <f>AF52</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="D15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="34">
-        <f>Z52</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="137">
-        <f>AG52</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="D16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="47">
-        <f>SUM(E11:E15)</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="49">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="134">
-        <f>SUM(K11:K15)</f>
-        <v>2394199</v>
-      </c>
-      <c r="L16" s="49">
-        <f t="shared" si="1"/>
-        <v>0.10191855315772352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="200"/>
-      <c r="T18" s="187" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="182" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="184"/>
-      <c r="AC18" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="177" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="177"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="161"/>
-      <c r="T19" s="188"/>
-      <c r="V19" s="179" t="s">
-        <v>24</v>
-      </c>
-      <c r="W19" s="179" t="s">
-        <v>25</v>
-      </c>
-      <c r="X19" s="179" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y19" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC19" s="179" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="179" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE19" s="179" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF19" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG19" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI19" s="186"/>
-    </row>
-    <row r="20" spans="1:37" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="169" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="168" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="169" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="169" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="171" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="171" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="170" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="166" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="T20" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="V20" s="201"/>
-      <c r="W20" s="201"/>
-      <c r="X20" s="201"/>
-      <c r="Y20" s="201"/>
-      <c r="Z20" s="201"/>
-      <c r="AA20" s="44"/>
-      <c r="AC20" s="201"/>
-      <c r="AD20" s="201"/>
-      <c r="AE20" s="201"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI20" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="130">
-        <v>97.703999999999994</v>
-      </c>
-      <c r="E21" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="87">
-        <v>45875</v>
-      </c>
-      <c r="K21" s="87">
-        <v>45875</v>
-      </c>
-      <c r="L21" s="160">
-        <v>45902</v>
-      </c>
-      <c r="M21" s="87">
-        <v>45903</v>
-      </c>
-      <c r="N21" s="87">
-        <v>45904</v>
-      </c>
-      <c r="O21" s="115">
-        <v>861022</v>
-      </c>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="95">
-        <v>45902</v>
-      </c>
-      <c r="V21" s="23">
-        <v>1</v>
-      </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="22">
-        <f t="shared" ref="AA21" si="2">SUM(V21:Z21)</f>
-        <v>1</v>
-      </c>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="105">
-        <f>$O$21*V21</f>
-        <v>861022</v>
-      </c>
-      <c r="AD21" s="105">
-        <f>$O$21*W21</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="105">
-        <f t="shared" ref="AE21:AG21" si="3">$O$21*X21</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="106">
-        <f>SUM(AC21:AG21)</f>
-        <v>861022</v>
-      </c>
-      <c r="AI21" s="107">
-        <f>O21-AH21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="130">
-        <v>161.35499999999999</v>
-      </c>
-      <c r="E22" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="159">
-        <v>32</v>
-      </c>
-      <c r="G22" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="140" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="87">
-        <v>45879</v>
-      </c>
-      <c r="K22" s="87">
-        <v>45879</v>
-      </c>
-      <c r="L22" s="87">
-        <v>45910</v>
-      </c>
-      <c r="M22" s="87">
-        <v>45911</v>
-      </c>
-      <c r="N22" s="87">
-        <v>45912</v>
-      </c>
-      <c r="O22" s="115">
-        <v>1610385.43</v>
-      </c>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="T22" s="95"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="22">
-        <f t="shared" ref="AA22:AA50" si="4">SUM(V22:Z22)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="88">
-        <f>$O$22*V22</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="88">
-        <f t="shared" ref="AD22:AG22" si="5">$O$22*W22</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="90">
-        <f t="shared" ref="AH22:AH25" si="6">SUM(AC22:AG22)</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="108">
-        <f t="shared" ref="AI22:AI25" si="7">O22-AH22</f>
-        <v>1610385.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>3</v>
-      </c>
-      <c r="B23" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="130">
-        <v>101.69</v>
-      </c>
-      <c r="E23" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="140" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="140"/>
-      <c r="J23" s="87">
-        <v>45911</v>
-      </c>
-      <c r="K23" s="87">
-        <v>45911</v>
-      </c>
-      <c r="L23" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M23" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N23" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O23" s="115">
-        <v>875860</v>
-      </c>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="T23" s="95"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="88">
-        <f>$O$23*V23</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="88">
-        <f t="shared" ref="AD23:AG23" si="8">$O$23*W23</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="108">
-        <f t="shared" si="7"/>
-        <v>875860</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
-        <v>4</v>
-      </c>
-      <c r="B24" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="130">
-        <v>161.35499999999999</v>
-      </c>
-      <c r="E24" s="140" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="159">
-        <v>32</v>
-      </c>
-      <c r="G24" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K24" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L24" s="87">
-        <v>45921</v>
-      </c>
-      <c r="M24" s="87">
-        <v>45922</v>
-      </c>
-      <c r="N24" s="87">
-        <v>45923</v>
-      </c>
-      <c r="O24" s="115">
-        <v>1610385.43</v>
-      </c>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="T24" s="95"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="88">
-        <f>$O$24*V24</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="88">
-        <f t="shared" ref="AD24:AG24" si="9">$O$24*W24</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="108">
-        <f t="shared" si="7"/>
-        <v>1610385.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
-        <v>5</v>
-      </c>
-      <c r="B25" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="130">
-        <v>68.677999999999997</v>
-      </c>
-      <c r="E25" s="140" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="140"/>
-      <c r="J25" s="87">
-        <v>45922</v>
-      </c>
-      <c r="K25" s="87">
-        <v>45922</v>
-      </c>
-      <c r="L25" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M25" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N25" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O25" s="115">
-        <v>712728.77</v>
-      </c>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="88">
-        <f>$O$25*V25</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="88">
-        <f t="shared" ref="AD25:AG25" si="10">$O$25*W25</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="108">
-        <f t="shared" si="7"/>
-        <v>712728.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>6</v>
-      </c>
-      <c r="B26" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="130">
-        <v>87.012</v>
-      </c>
-      <c r="E26" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="159">
-        <v>25</v>
-      </c>
-      <c r="G26" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="87">
-        <v>45901</v>
-      </c>
-      <c r="K26" s="87">
-        <v>45901</v>
-      </c>
-      <c r="L26" s="87">
-        <v>45913</v>
-      </c>
-      <c r="M26" s="87">
-        <v>45914</v>
-      </c>
-      <c r="N26" s="87">
-        <v>45915</v>
-      </c>
-      <c r="O26" s="115">
-        <v>789838</v>
-      </c>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="88">
-        <f>$O$26*V26</f>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="88">
-        <f>$O$26*W26</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="88">
-        <f>$O$26*X26</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="88">
-        <f t="shared" ref="AF26:AF33" si="11">$O$25*Y26</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="88">
-        <f>$O$26*Z26</f>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="89">
-        <f t="shared" ref="AH26:AH33" si="12">SUM(AC26:AG26)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="108">
-        <f t="shared" ref="AI26:AI49" si="13">O26-AH26</f>
-        <v>789838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>7</v>
-      </c>
-      <c r="B27" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="130">
-        <v>110.696</v>
-      </c>
-      <c r="E27" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="87">
-        <v>45914</v>
-      </c>
-      <c r="K27" s="87">
-        <v>45914</v>
-      </c>
-      <c r="L27" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M27" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N27" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O27" s="115">
-        <v>1004656</v>
-      </c>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="T27" s="95"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="88">
-        <f t="shared" ref="AC27" si="14">$O$25*V27</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="88">
-        <f t="shared" ref="AD27:AD28" si="15">$O$25*W27</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="88">
-        <f>$O$27*X27</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="88">
-        <f>$O$27*Y27</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="88">
-        <f t="shared" ref="AG27:AG33" si="16">$O$25*Z27</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="108">
-        <f t="shared" si="13"/>
-        <v>1004656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>8</v>
-      </c>
-      <c r="B28" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="130">
-        <v>97.703999999999994</v>
-      </c>
-      <c r="E28" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="159">
-        <v>45</v>
-      </c>
-      <c r="G28" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="87">
-        <v>45893</v>
-      </c>
-      <c r="K28" s="87">
-        <v>45893</v>
-      </c>
-      <c r="L28" s="87">
-        <v>45914</v>
-      </c>
-      <c r="M28" s="87">
-        <v>45915</v>
-      </c>
-      <c r="N28" s="87">
-        <v>45916</v>
-      </c>
-      <c r="O28" s="115">
-        <v>861022</v>
-      </c>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="T28" s="95"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="88">
-        <f>$O$28*V28</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="88">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="88">
-        <f t="shared" ref="AE28" si="17">$O$25*X28</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="88">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="88">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="108">
-        <f t="shared" si="13"/>
-        <v>861022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>9</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="130">
-        <v>110.575</v>
-      </c>
-      <c r="E29" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="140"/>
-      <c r="J29" s="87">
-        <v>45915</v>
-      </c>
-      <c r="K29" s="87">
-        <v>45915</v>
-      </c>
-      <c r="L29" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M29" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N29" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O29" s="115">
-        <v>974538</v>
-      </c>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="T29" s="95"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="88">
-        <f>$O$29*V29</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="88">
-        <f>$O$29*W29</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="88">
-        <f>$O$29*X29</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="88">
-        <f t="shared" ref="AF29:AF32" si="18">$O$25*Y29</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="88">
-        <f t="shared" ref="AG29:AG32" si="19">$O$25*Z29</f>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="89">
-        <f t="shared" ref="AH29:AH32" si="20">SUM(AC29:AG29)</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="108">
-        <f t="shared" si="13"/>
-        <v>974538</v>
-      </c>
-      <c r="AK29" s="115"/>
-    </row>
-    <row r="30" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
-        <v>10</v>
-      </c>
-      <c r="B30" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="130">
-        <v>110.696</v>
-      </c>
-      <c r="E30" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="159">
-        <v>34</v>
-      </c>
-      <c r="G30" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K30" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L30" s="87">
-        <v>45921</v>
-      </c>
-      <c r="M30" s="87">
-        <v>45922</v>
-      </c>
-      <c r="N30" s="87">
-        <v>45923</v>
-      </c>
-      <c r="O30" s="115">
-        <v>1492772</v>
-      </c>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="T30" s="95"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="88">
-        <f t="shared" ref="AC30" si="21">$O$25*V30</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="88">
-        <f t="shared" ref="AD30:AD32" si="22">$O$25*W30</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="88">
-        <f>$O$30*X30</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="88">
-        <f>$O$30*Y30</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="88">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="89">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="108">
-        <f t="shared" si="13"/>
-        <v>1492772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
-        <v>11</v>
-      </c>
-      <c r="B31" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="130">
-        <v>64.481999999999999</v>
-      </c>
-      <c r="E31" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="140"/>
-      <c r="J31" s="87">
-        <v>45922</v>
-      </c>
-      <c r="K31" s="87">
-        <v>45922</v>
-      </c>
-      <c r="L31" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M31" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N31" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O31" s="115">
-        <v>568304</v>
-      </c>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="T31" s="95"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="88">
-        <f>$O$31*V31</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="88">
-        <f>$O$31*W31</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="88">
-        <f t="shared" ref="AE31:AE32" si="23">$O$25*X31</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="88">
-        <f>$O$31*Y31</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="88">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="89">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="108">
-        <f t="shared" si="13"/>
-        <v>568304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
-        <v>12</v>
-      </c>
-      <c r="B32" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="130">
-        <v>89.712999999999994</v>
-      </c>
-      <c r="E32" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="159">
-        <v>33</v>
-      </c>
-      <c r="G32" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="87">
-        <v>45901</v>
-      </c>
-      <c r="K32" s="87">
-        <v>45901</v>
-      </c>
-      <c r="L32" s="87">
-        <v>45916</v>
-      </c>
-      <c r="M32" s="87">
-        <v>45917</v>
-      </c>
-      <c r="N32" s="87">
-        <v>45918</v>
-      </c>
-      <c r="O32" s="115">
-        <v>827835</v>
-      </c>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="88">
-        <f>$O$32*V32</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="88">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="88">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="88">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="89">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="108">
-        <f t="shared" si="13"/>
-        <v>827835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
-        <v>13</v>
-      </c>
-      <c r="B33" s="144" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="130">
-        <v>43.776000000000003</v>
-      </c>
-      <c r="E33" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="159"/>
-      <c r="G33" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="140"/>
-      <c r="J33" s="87">
-        <v>45917</v>
-      </c>
-      <c r="K33" s="87">
-        <v>45917</v>
-      </c>
-      <c r="L33" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M33" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N33" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O33" s="115">
-        <v>371402</v>
-      </c>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="T33" s="95"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="88">
-        <f>$O$33*V33</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="88">
-        <f>$O$33*W33</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="88">
-        <f>$O$33*X33</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="88">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="88">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="108">
-        <f t="shared" si="13"/>
-        <v>371402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
-        <v>14</v>
-      </c>
-      <c r="B34" s="157" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="130">
-        <v>118.43</v>
-      </c>
-      <c r="E34" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="159">
-        <v>34</v>
-      </c>
-      <c r="G34" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="140"/>
-      <c r="J34" s="87">
-        <v>45885</v>
-      </c>
-      <c r="K34" s="87">
-        <v>45885</v>
-      </c>
-      <c r="L34" s="160">
-        <v>45905</v>
-      </c>
-      <c r="M34" s="87">
-        <v>45906</v>
-      </c>
-      <c r="N34" s="87">
-        <v>45907</v>
-      </c>
-      <c r="O34" s="115">
-        <v>1062230</v>
-      </c>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="T34" s="95">
-        <v>45906</v>
-      </c>
-      <c r="V34" s="51">
-        <v>1</v>
-      </c>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC34" s="88">
-        <f>$O$34*V34</f>
-        <v>1062230</v>
-      </c>
-      <c r="AD34" s="88">
-        <f>$O$34*W34</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="88">
-        <f>$O$34*X34</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="88">
-        <f>$O$34*Y34</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="88">
-        <f t="shared" ref="AG34:AG40" si="24">$O$25*Z34</f>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="89">
-        <f t="shared" ref="AH34:AH40" si="25">SUM(AC34:AG34)</f>
-        <v>1062230</v>
-      </c>
-      <c r="AI34" s="108">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
-        <v>15</v>
-      </c>
-      <c r="B35" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="151">
-        <v>90.125</v>
-      </c>
-      <c r="E35" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J35" s="87">
-        <v>45906</v>
-      </c>
-      <c r="K35" s="87">
-        <v>45906</v>
-      </c>
-      <c r="L35" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M35" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N35" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O35" s="115">
-        <v>828626</v>
-      </c>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="T35" s="95"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="88">
-        <f t="shared" ref="AC35:AC40" si="26">$O$25*V35</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="88">
-        <f>$O$35*W35</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="88">
-        <f>$O$35*X35</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="88">
-        <f t="shared" ref="AF35:AF39" si="27">$O$25*Y35</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="88">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="89">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="108">
-        <f t="shared" si="13"/>
-        <v>828626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
-        <v>16</v>
-      </c>
-      <c r="B36" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="130">
-        <v>55.338999999999999</v>
-      </c>
-      <c r="E36" s="172" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="159">
-        <v>33</v>
-      </c>
-      <c r="G36" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J36" s="87">
-        <v>45887</v>
-      </c>
-      <c r="K36" s="87">
-        <v>45887</v>
-      </c>
-      <c r="L36" s="160">
-        <v>45904</v>
-      </c>
-      <c r="M36" s="87">
-        <v>45905</v>
-      </c>
-      <c r="N36" s="87">
-        <v>45906</v>
-      </c>
-      <c r="O36" s="115">
-        <v>470947</v>
-      </c>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="162"/>
-      <c r="T36" s="95">
-        <v>45904</v>
-      </c>
-      <c r="V36" s="51">
-        <v>1</v>
-      </c>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC36" s="88">
-        <f>$O$36*V36</f>
-        <v>470947</v>
-      </c>
-      <c r="AD36" s="88">
-        <f>$O$36*W36</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="88">
-        <f>$O$36*X36</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="88">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="88">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="89">
-        <f t="shared" si="25"/>
-        <v>470947</v>
-      </c>
-      <c r="AI36" s="108">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
-        <v>17</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="151">
-        <v>90.125</v>
-      </c>
-      <c r="E37" s="172" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="140"/>
-      <c r="J37" s="87">
-        <v>45905</v>
-      </c>
-      <c r="K37" s="87">
-        <v>45905</v>
-      </c>
-      <c r="L37" s="87">
-        <v>45914</v>
-      </c>
-      <c r="M37" s="87">
-        <v>45915</v>
-      </c>
-      <c r="N37" s="87">
-        <v>45916</v>
-      </c>
-      <c r="O37" s="115">
-        <v>828626</v>
-      </c>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="162"/>
-      <c r="R37" s="162"/>
-      <c r="T37" s="95"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="88">
-        <f>$O$37*V37</f>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="88">
-        <f t="shared" ref="AD37:AD39" si="28">$O$25*W37</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="88">
-        <f>$O$37*X37</f>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="88">
-        <f>$O$37*Y37</f>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="88">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="89">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="108">
-        <f t="shared" si="13"/>
-        <v>828626</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
-        <v>18</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="130">
-        <v>110.575</v>
-      </c>
-      <c r="E38" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="159">
-        <v>40</v>
-      </c>
-      <c r="G38" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="I38" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J38" s="87">
-        <v>45887</v>
-      </c>
-      <c r="K38" s="87">
-        <v>45887</v>
-      </c>
-      <c r="L38" s="87">
-        <v>45911</v>
-      </c>
-      <c r="M38" s="87">
-        <v>45912</v>
-      </c>
-      <c r="N38" s="87">
-        <v>45913</v>
-      </c>
-      <c r="O38" s="115">
-        <v>974538</v>
-      </c>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
-      <c r="R38" s="162"/>
-      <c r="T38" s="95"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="88">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="88">
-        <f>$O$38*W38</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="88">
-        <f t="shared" ref="AE38:AE39" si="29">$O$25*X38</f>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="88">
-        <f>$O$38*Y38</f>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="88">
-        <f>$O$38*Z38</f>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="89">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="108">
-        <f t="shared" si="13"/>
-        <v>974538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
-        <v>19</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="130">
-        <v>75.897000000000006</v>
-      </c>
-      <c r="E39" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="140"/>
-      <c r="J39" s="87">
-        <v>45914</v>
-      </c>
-      <c r="K39" s="87">
-        <v>45915</v>
-      </c>
-      <c r="L39" s="87">
-        <v>45921</v>
-      </c>
-      <c r="M39" s="87">
-        <v>45922</v>
-      </c>
-      <c r="N39" s="87">
-        <v>45923</v>
-      </c>
-      <c r="O39" s="115">
-        <v>669569.35</v>
-      </c>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="T39" s="7"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="88">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="88">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="88">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="88">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="88">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="89">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="108">
-        <f t="shared" si="13"/>
-        <v>669569.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
-        <v>20</v>
-      </c>
-      <c r="B40" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="8">
-        <v>42.374000000000002</v>
-      </c>
-      <c r="E40" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="140"/>
-      <c r="J40" s="87">
-        <v>45922</v>
-      </c>
-      <c r="K40" s="87">
-        <v>45922</v>
-      </c>
-      <c r="L40" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M40" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N40" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O40" s="115">
-        <v>359483</v>
-      </c>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
-      <c r="R40" s="162"/>
-      <c r="T40" s="95"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="88">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="88">
-        <f>$O$40*W40</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="88">
-        <f>$O$40*X40</f>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="88">
-        <f>$O$40*Y40</f>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="88">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="89">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AI40" s="108">
-        <f t="shared" si="13"/>
-        <v>359483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
-        <v>21</v>
-      </c>
-      <c r="B41" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="8">
-        <v>73.430000000000007</v>
-      </c>
-      <c r="E41" s="172" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="159">
-        <v>30</v>
-      </c>
-      <c r="G41" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="87">
-        <v>45901</v>
-      </c>
-      <c r="K41" s="87">
-        <v>45901</v>
-      </c>
-      <c r="L41" s="87">
-        <v>45912</v>
-      </c>
-      <c r="M41" s="87">
-        <v>45913</v>
-      </c>
-      <c r="N41" s="87">
-        <v>45914</v>
-      </c>
-      <c r="O41" s="115">
-        <v>666437</v>
-      </c>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
-      <c r="R41" s="162"/>
-      <c r="T41" s="98"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="88">
-        <f>$O$41*V41</f>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="88">
-        <f>$O$41*W41</f>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="88">
-        <f t="shared" ref="AE41:AE49" si="30">$O$25*X41</f>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="88">
-        <f>$O$41*Y41</f>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="88">
-        <f t="shared" ref="AG41:AG49" si="31">$O$25*Z41</f>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="89">
-        <f t="shared" ref="AH41:AH49" si="32">SUM(AC41:AG41)</f>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="108">
-        <f t="shared" si="13"/>
-        <v>666437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
-        <v>22</v>
-      </c>
-      <c r="B42" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="8">
-        <v>97.228999999999999</v>
-      </c>
-      <c r="E42" s="172" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="140"/>
-      <c r="J42" s="87">
-        <v>45913</v>
-      </c>
-      <c r="K42" s="87">
-        <v>45913</v>
-      </c>
-      <c r="L42" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M42" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N42" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O42" s="115">
-        <v>837742</v>
-      </c>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="162"/>
-      <c r="R42" s="162"/>
-      <c r="T42" s="98"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="88">
-        <f t="shared" ref="AC42:AC49" si="33">$O$25*V42</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="88">
-        <f t="shared" ref="AD42:AD48" si="34">$O$25*W42</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="88">
-        <f>$O$42*X42</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="88">
-        <f t="shared" ref="AF42:AF49" si="35">$O$25*Y42</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="88">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="108">
-        <f t="shared" si="13"/>
-        <v>837742</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>23</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="8">
-        <v>42.374000000000002</v>
-      </c>
-      <c r="E43" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="159">
-        <v>16</v>
-      </c>
-      <c r="G43" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="I43" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J43" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K43" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L43" s="87">
-        <v>45910</v>
-      </c>
-      <c r="M43" s="87">
-        <v>45911</v>
-      </c>
-      <c r="N43" s="87">
-        <v>45912</v>
-      </c>
-      <c r="O43" s="115">
-        <v>359483</v>
-      </c>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="T43" s="98"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="88">
-        <f>$O$43*V43</f>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="88">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="88">
-        <f>$O$43*Y43</f>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="88">
-        <f>$O$43*Z43</f>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="108">
-        <f t="shared" si="13"/>
-        <v>359483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
-        <v>24</v>
-      </c>
-      <c r="B44" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="151">
-        <v>90.125</v>
-      </c>
-      <c r="E44" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="140"/>
-      <c r="J44" s="87">
-        <v>45911</v>
-      </c>
-      <c r="K44" s="87">
-        <v>45911</v>
-      </c>
-      <c r="L44" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M44" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N44" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O44" s="115">
-        <v>828626</v>
-      </c>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="T44" s="98"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="88">
-        <f>$O$44*V44</f>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="88">
-        <f>$O$44*W44</f>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="88">
-        <f>$O$44*X44</f>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="88">
-        <f>$O$44*Y44</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="88">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="108">
-        <f t="shared" si="13"/>
-        <v>828626</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
-        <v>25</v>
-      </c>
-      <c r="B45" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="8">
-        <v>53.323999999999998</v>
-      </c>
-      <c r="E45" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K45" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L45" s="87">
-        <v>45914</v>
-      </c>
-      <c r="M45" s="87">
-        <v>45915</v>
-      </c>
-      <c r="N45" s="87">
-        <v>45916</v>
-      </c>
-      <c r="O45" s="115">
-        <v>450628</v>
-      </c>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="T45" s="98"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="88">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="88">
-        <f>$O$45*W45</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="88">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="88">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="108">
-        <f t="shared" si="13"/>
-        <v>450628</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>26</v>
-      </c>
-      <c r="B46" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="8">
-        <v>73.426000000000002</v>
-      </c>
-      <c r="E46" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="87">
-        <v>45915</v>
-      </c>
-      <c r="K46" s="87">
-        <v>45915</v>
-      </c>
-      <c r="L46" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M46" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N46" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O46" s="115">
-        <v>666437</v>
-      </c>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
-      <c r="R46" s="162"/>
-      <c r="T46" s="95"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="88">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="88">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="88">
-        <f>$O$46*X46</f>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="88">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="88">
-        <f>$O$46*Z46</f>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="108">
-        <f t="shared" si="13"/>
-        <v>666437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
-        <v>27</v>
-      </c>
-      <c r="B47" s="142" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="8">
-        <v>53.323999999999998</v>
-      </c>
-      <c r="E47" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="159">
-        <v>20</v>
-      </c>
-      <c r="G47" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H47" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="I47" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J47" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K47" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L47" s="87">
-        <v>45914</v>
-      </c>
-      <c r="M47" s="87">
-        <v>45915</v>
-      </c>
-      <c r="N47" s="87">
-        <v>45916</v>
-      </c>
-      <c r="O47" s="115">
-        <v>450628</v>
-      </c>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="162"/>
-      <c r="T47" s="98"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="88">
-        <f>$O$47*V47</f>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="88">
-        <f>$O$47*W47</f>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="88">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="88">
-        <f>$O$47*Z47</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="108">
-        <f t="shared" si="13"/>
-        <v>450628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
-        <v>28</v>
-      </c>
-      <c r="B48" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="8">
-        <v>73.426000000000002</v>
-      </c>
-      <c r="E48" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="140"/>
-      <c r="J48" s="87">
-        <v>45915</v>
-      </c>
-      <c r="K48" s="87">
-        <v>45915</v>
-      </c>
-      <c r="L48" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M48" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N48" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O48" s="115">
-        <v>666437</v>
-      </c>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="162"/>
-      <c r="R48" s="162"/>
-      <c r="T48" s="98"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="88">
-        <f>$O$48*V48</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="88">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="88">
-        <f>$O$48*X48</f>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="88">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="88">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="108">
-        <f t="shared" si="13"/>
-        <v>666437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
-        <v>29</v>
-      </c>
-      <c r="B49" s="142" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="8">
-        <v>42.374000000000002</v>
-      </c>
-      <c r="E49" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="159">
-        <v>24</v>
-      </c>
-      <c r="G49" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="J49" s="87">
-        <v>45899</v>
-      </c>
-      <c r="K49" s="87">
-        <v>45899</v>
-      </c>
-      <c r="L49" s="87">
-        <v>45914</v>
-      </c>
-      <c r="M49" s="87">
-        <v>45915</v>
-      </c>
-      <c r="N49" s="87">
-        <v>45916</v>
-      </c>
-      <c r="O49" s="115">
-        <v>359483</v>
-      </c>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="162"/>
-      <c r="R49" s="162"/>
-      <c r="T49" s="98"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="88">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="88">
-        <f>$O$49*W49</f>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="88">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="88">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="108">
-        <f t="shared" si="13"/>
-        <v>359483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
-        <v>30</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="8">
-        <v>53.323999999999998</v>
-      </c>
-      <c r="E50" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="140"/>
-      <c r="J50" s="87">
-        <v>45915</v>
-      </c>
-      <c r="K50" s="87">
-        <v>45915</v>
-      </c>
-      <c r="L50" s="87">
-        <v>45930</v>
-      </c>
-      <c r="M50" s="87">
-        <v>45931</v>
-      </c>
-      <c r="N50" s="87">
-        <v>45932</v>
-      </c>
-      <c r="O50" s="115">
-        <v>450628</v>
-      </c>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="162"/>
-      <c r="R50" s="162"/>
-      <c r="T50" s="98"/>
-      <c r="V50" s="51"/>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="51"/>
-      <c r="Z50" s="51"/>
-      <c r="AA50" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="88">
-        <f t="shared" ref="AC50" si="36">$O$25*V50</f>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="88">
-        <f t="shared" ref="AD50" si="37">$O$25*W50</f>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="88">
-        <f t="shared" ref="AE50" si="38">$O$25*X50</f>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="88">
-        <f>$O$50*Y50</f>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="88">
-        <f>$O$50*Z50</f>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="89">
-        <f t="shared" ref="AH50" si="39">SUM(AC50:AG50)</f>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="108">
-        <f t="shared" ref="AI50" si="40">O50-AH50</f>
-        <v>450628</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162"/>
-      <c r="T51" s="50"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="51"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="22"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="89"/>
-      <c r="AI51" s="108"/>
-    </row>
-    <row r="52" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="145">
-        <f>SUM(D21:D51)</f>
-        <v>2540.6569999999997</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="17">
-        <f>SUM(O21:O51)</f>
-        <v>23491296.98</v>
-      </c>
-      <c r="P52" s="163"/>
-      <c r="Q52" s="163"/>
-      <c r="R52" s="163"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="139">
-        <f t="shared" ref="V52:AA52" si="41">SUM(V21:V51)</f>
-        <v>3</v>
-      </c>
-      <c r="W52" s="139">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="139">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="139">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="139">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="26">
-        <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="AC52" s="138">
-        <f t="shared" ref="AC52:AI52" si="42">SUM(AC21:AC51)</f>
-        <v>2394199</v>
-      </c>
-      <c r="AD52" s="138">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="138">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="91">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="91">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AH52" s="91">
-        <f t="shared" si="42"/>
-        <v>2394199</v>
-      </c>
-      <c r="AI52" s="91">
-        <f t="shared" si="42"/>
-        <v>21097097.979999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AC53" s="92"/>
-      <c r="AD53" s="92"/>
-      <c r="AE53" s="92"/>
-      <c r="AF53" s="92"/>
-      <c r="AG53" s="92"/>
-      <c r="AH53" s="92"/>
-      <c r="AI53" s="92"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="192"/>
+      <c r="V37" s="193"/>
+      <c r="W37" s="193"/>
+      <c r="X37" s="193"/>
+      <c r="Y37" s="193"/>
+      <c r="Z37" s="193"/>
+      <c r="AA37" s="193"/>
+      <c r="AC37" s="194"/>
+      <c r="AD37" s="194"/>
+      <c r="AE37" s="194"/>
+      <c r="AF37" s="195"/>
+      <c r="AG37" s="195"/>
+      <c r="AH37" s="195"/>
+      <c r="AI37" s="195"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AC38" s="196"/>
+      <c r="AD38" s="196"/>
+      <c r="AE38" s="196"/>
+      <c r="AF38" s="196"/>
+      <c r="AG38" s="196"/>
+      <c r="AH38" s="196"/>
+      <c r="AI38" s="196"/>
     </row>
   </sheetData>
-  <autoFilter ref="A20:O50" xr:uid="{035547A7-D1B5-4A88-918A-3701F4B0E907}"/>
-  <mergeCells count="17">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AC18:AH18"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="194" priority="65"/>
     <cfRule type="duplicateValues" dxfId="193" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B29 B31:B50">
+  <conditionalFormatting sqref="B2:B10 B12:B31">
     <cfRule type="duplicateValues" dxfId="192" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="191" priority="236"/>
     <cfRule type="duplicateValues" dxfId="190" priority="237"/>
     <cfRule type="duplicateValues" dxfId="189" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B8">
     <cfRule type="duplicateValues" dxfId="188" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B11">
     <cfRule type="duplicateValues" dxfId="187" priority="56"/>
     <cfRule type="duplicateValues" dxfId="186" priority="57"/>
     <cfRule type="duplicateValues" dxfId="185" priority="58"/>
     <cfRule type="duplicateValues" dxfId="184" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 B22 B24:B26 B33">
+  <conditionalFormatting sqref="B12 B3 B5:B7 B14">
     <cfRule type="duplicateValues" dxfId="183" priority="239"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B13">
     <cfRule type="duplicateValues" dxfId="182" priority="227"/>
     <cfRule type="duplicateValues" dxfId="181" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+  <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="180" priority="232"/>
     <cfRule type="duplicateValues" dxfId="179" priority="233"/>
     <cfRule type="duplicateValues" dxfId="178" priority="234"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B16">
     <cfRule type="duplicateValues" dxfId="177" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
+  <conditionalFormatting sqref="B17:B18">
     <cfRule type="duplicateValues" dxfId="176" priority="231"/>
     <cfRule type="duplicateValues" dxfId="175" priority="245"/>
     <cfRule type="duplicateValues" dxfId="174" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38 B28:B29">
+  <conditionalFormatting sqref="B19 B9:B10">
     <cfRule type="duplicateValues" dxfId="173" priority="240"/>
     <cfRule type="duplicateValues" dxfId="172" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B50">
+  <conditionalFormatting sqref="B20:B31">
     <cfRule type="duplicateValues" dxfId="171" priority="243"/>
     <cfRule type="duplicateValues" dxfId="170" priority="244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B36">
     <cfRule type="duplicateValues" dxfId="169" priority="2054"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C19">
     <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
@@ -9386,622 +8252,622 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J23">
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="containsText" dxfId="168" priority="28" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J6">
+    <cfRule type="containsText" dxfId="167" priority="33" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="34" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J15">
+    <cfRule type="containsText" dxfId="165" priority="36" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="37" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J14">
+    <cfRule type="containsText" dxfId="163" priority="35" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="containsText" dxfId="162" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J14">
+    <cfRule type="containsText" dxfId="160" priority="30" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="31" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="32" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J16 K16 L14:N14 K15:N15">
+    <cfRule type="containsText" dxfId="157" priority="214" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20 K20">
+    <cfRule type="containsText" dxfId="156" priority="26" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="27" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J23">
+    <cfRule type="containsText" dxfId="154" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="22" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J23">
+    <cfRule type="containsText" dxfId="152" priority="17" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="19" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="20" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J31">
+    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="containsText" dxfId="145" priority="162" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="163" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="164" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="166" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="167" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="168" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="169" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K16">
+    <cfRule type="containsText" dxfId="137" priority="210" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="211" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:K18">
+    <cfRule type="containsText" dxfId="135" priority="145" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:K21">
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J25">
-    <cfRule type="containsText" dxfId="167" priority="33" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="34" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J21)))</formula>
+  <conditionalFormatting sqref="J24:K31">
+    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="4" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J34">
-    <cfRule type="containsText" dxfId="165" priority="36" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="37" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J22)))</formula>
+  <conditionalFormatting sqref="J2:N2">
+    <cfRule type="containsText" dxfId="130" priority="54" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="55" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J33">
-    <cfRule type="containsText" dxfId="163" priority="35" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J24)))</formula>
+  <conditionalFormatting sqref="J4:N4 L6:N6">
+    <cfRule type="containsText" dxfId="128" priority="224" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="225" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="226" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31">
-    <cfRule type="containsText" dxfId="162" priority="1" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="containsText" dxfId="160" priority="30" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="31" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="32" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J35 K35 L33:N33 K34:N34">
-    <cfRule type="containsText" dxfId="157" priority="214" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J39 K39">
-    <cfRule type="containsText" dxfId="156" priority="26" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="27" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J42">
-    <cfRule type="containsText" dxfId="154" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="22" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J42">
-    <cfRule type="containsText" dxfId="152" priority="17" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="18" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="19" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="20" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:J50">
-    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:K29">
-    <cfRule type="containsText" dxfId="145" priority="162" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="163" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="164" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="166" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="167" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="168" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="169" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35">
-    <cfRule type="containsText" dxfId="137" priority="210" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="211" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="containsText" dxfId="135" priority="145" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K50">
-    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="4" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J43)))</formula>
+  <conditionalFormatting sqref="J16:N16">
+    <cfRule type="containsText" dxfId="125" priority="160" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="161" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:N21">
-    <cfRule type="containsText" dxfId="130" priority="54" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="128" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="55" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:N23 L25:N25">
-    <cfRule type="containsText" dxfId="128" priority="224" operator="containsText" text="WIP">
+  <conditionalFormatting sqref="J23:N23">
+    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="225" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="226" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="113" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="114" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:N35">
-    <cfRule type="containsText" dxfId="125" priority="160" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="161" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J35)))</formula>
+  <conditionalFormatting sqref="J36:N36">
+    <cfRule type="containsText" dxfId="115" priority="841" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="891" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="892" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:N40">
-    <cfRule type="containsText" dxfId="123" priority="128" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J40)))</formula>
+  <conditionalFormatting sqref="K2:K6">
+    <cfRule type="containsText" dxfId="112" priority="197" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:N42">
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="113" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="114" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J42)))</formula>
+  <conditionalFormatting sqref="K20 J17:J20">
+    <cfRule type="containsText" dxfId="110" priority="25" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:N51">
-    <cfRule type="containsText" dxfId="115" priority="841" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="891" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="892" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J51)))</formula>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="109" priority="23" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="24" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K25">
-    <cfRule type="containsText" dxfId="112" priority="197" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="107" priority="133" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="106" priority="134" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39 J36:J39">
-    <cfRule type="containsText" dxfId="110" priority="25" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
+  <conditionalFormatting sqref="K2:N4">
+    <cfRule type="containsText" dxfId="105" priority="144" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
-    <cfRule type="containsText" dxfId="109" priority="23" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="24" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K39)))</formula>
+  <conditionalFormatting sqref="K3:N4">
+    <cfRule type="containsText" dxfId="104" priority="215" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="216" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="107" priority="133" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="134" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K40)))</formula>
+  <conditionalFormatting sqref="K5:N14">
+    <cfRule type="containsText" dxfId="102" priority="199" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:N23">
-    <cfRule type="containsText" dxfId="105" priority="144" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K21)))</formula>
+  <conditionalFormatting sqref="K5:N15">
+    <cfRule type="containsText" dxfId="101" priority="200" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="201" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:N12">
+    <cfRule type="containsText" dxfId="99" priority="43" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="44" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:N14">
+    <cfRule type="containsText" dxfId="97" priority="181" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="182" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:N18">
+    <cfRule type="containsText" dxfId="94" priority="147" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:N19 L20:N20">
+    <cfRule type="containsText" dxfId="93" priority="136" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="137" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:N19 L20:N20">
+    <cfRule type="containsText" dxfId="91" priority="138" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:N23">
-    <cfRule type="containsText" dxfId="104" priority="215" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="216" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="88" priority="117" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="118" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="119" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="120" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:N33">
-    <cfRule type="containsText" dxfId="102" priority="199" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K24)))</formula>
+  <conditionalFormatting sqref="K23:N25">
+    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="100" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:N34">
-    <cfRule type="containsText" dxfId="101" priority="200" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="201" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K24)))</formula>
+  <conditionalFormatting sqref="K26:N27">
+    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="92" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:N29">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:N31">
-    <cfRule type="containsText" dxfId="99" priority="43" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="44" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:N33">
-    <cfRule type="containsText" dxfId="97" priority="181" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="182" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K32)))</formula>
+  <conditionalFormatting sqref="L2:N2">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:N37">
-    <cfRule type="containsText" dxfId="94" priority="147" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K36)))</formula>
+  <conditionalFormatting sqref="L3:N6">
+    <cfRule type="containsText" dxfId="70" priority="212" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="213" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:N38 L39:N39">
-    <cfRule type="containsText" dxfId="93" priority="136" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="137" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K36)))</formula>
+  <conditionalFormatting sqref="L6:N6">
+    <cfRule type="containsText" dxfId="68" priority="194" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="195" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="196" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:N38 L39:N39">
-    <cfRule type="containsText" dxfId="91" priority="138" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K38)))</formula>
+  <conditionalFormatting sqref="L9:N10">
+    <cfRule type="containsText" dxfId="65" priority="170" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="171" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="172" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="173" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="174" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="175" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="176" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="177" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:N42">
-    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="117" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="118" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="119" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="120" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K41)))</formula>
+  <conditionalFormatting sqref="L12:N12">
+    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="42" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="48" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:N44">
-    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="100" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K42)))</formula>
+  <conditionalFormatting sqref="L14:N14 J23:N23">
+    <cfRule type="containsText" dxfId="51" priority="219" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="221" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:N46">
-    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="92" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K45)))</formula>
+  <conditionalFormatting sqref="L14:N14">
+    <cfRule type="containsText" dxfId="49" priority="178" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="179" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="180" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:N48">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K47)))</formula>
+  <conditionalFormatting sqref="L14:N15">
+    <cfRule type="containsText" dxfId="46" priority="184" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="185" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:N50">
-    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K49)))</formula>
+  <conditionalFormatting sqref="L16:N16">
+    <cfRule type="containsText" dxfId="44" priority="151" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="152" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="153" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="154" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="155" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="156" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="159" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:N18">
+    <cfRule type="containsText" dxfId="37" priority="157" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="158" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:N21">
+    <cfRule type="containsText" dxfId="35" priority="131" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:N21">
-    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="122" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="123" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="31" priority="124" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="125" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="126" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="127" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="130" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L21)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:N25">
-    <cfRule type="containsText" dxfId="70" priority="212" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="213" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L22)))</formula>
+  <conditionalFormatting sqref="L24:N31">
+    <cfRule type="containsText" dxfId="26" priority="102" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="103" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:N25">
-    <cfRule type="containsText" dxfId="68" priority="194" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="24" priority="96" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="195" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="23" priority="97" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="196" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="22" priority="98" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="104" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="105" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="106" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:N29">
-    <cfRule type="containsText" dxfId="65" priority="170" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="171" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="172" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="173" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="174" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="175" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="176" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="177" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
+  <conditionalFormatting sqref="L27:N27">
+    <cfRule type="containsText" dxfId="18" priority="87" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="88" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="93" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="94" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="95" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:N29">
+    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="79" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="80" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="84" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="85" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="86" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:N31">
-    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="6" priority="67" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="5" priority="68" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="42" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="4" priority="69" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="3" priority="75" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="48" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="76" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="1" priority="77" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:N33 J42:N42">
-    <cfRule type="containsText" dxfId="51" priority="219" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="221" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:N33">
-    <cfRule type="containsText" dxfId="49" priority="178" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="179" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="180" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:N34">
-    <cfRule type="containsText" dxfId="46" priority="184" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="185" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:N35">
-    <cfRule type="containsText" dxfId="44" priority="151" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="152" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="153" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="154" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="155" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="156" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="159" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:N37">
-    <cfRule type="containsText" dxfId="37" priority="157" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="158" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38:N40">
-    <cfRule type="containsText" dxfId="35" priority="131" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40:N40">
-    <cfRule type="containsText" dxfId="33" priority="122" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="123" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="124" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="125" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="126" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="127" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="130" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:N50">
-    <cfRule type="containsText" dxfId="26" priority="102" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="103" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:N44">
-    <cfRule type="containsText" dxfId="24" priority="96" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="98" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="104" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="105" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="106" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:N46">
-    <cfRule type="containsText" dxfId="18" priority="87" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="88" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="93" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="94" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="95" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:N48">
-    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="79" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="80" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="84" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="85" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="86" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:N50">
-    <cfRule type="containsText" dxfId="6" priority="67" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="68" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="69" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="75" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="76" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="77" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -10019,7 +8885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C38</xm:sqref>
+          <xm:sqref>C19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10089,15 +8955,15 @@
         <v>22</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="57">
+      <c r="J4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="55">
         <v>905812</v>
       </c>
     </row>
@@ -10109,12 +8975,12 @@
       <c r="E5" s="40">
         <v>115</v>
       </c>
-      <c r="O5" s="141"/>
+      <c r="O5" s="123"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="41">
         <v>32.6</v>
@@ -10146,7 +9012,7 @@
         <v>23.984999999999999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="47">
         <f>K34</f>
@@ -10177,7 +9043,7 @@
         <f>E11/$E$9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="120">
         <f>V34</f>
         <v>0</v>
       </c>
@@ -10199,7 +9065,7 @@
         <f t="shared" ref="F12:F16" si="0">E12/$E$9</f>
         <v>0</v>
       </c>
-      <c r="G12" s="136">
+      <c r="G12" s="120">
         <f>W34</f>
         <v>0</v>
       </c>
@@ -10221,7 +9087,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="120">
         <f>X34</f>
         <v>0</v>
       </c>
@@ -10243,7 +9109,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="120">
         <f>Y34</f>
         <v>0</v>
       </c>
@@ -10265,7 +9131,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="121">
         <f>Z34</f>
         <v>0</v>
       </c>
@@ -10303,128 +9169,128 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="187" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="187" t="s">
+      <c r="E18" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="157" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="159"/>
+      <c r="V18" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="159"/>
+      <c r="AB18" s="160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="152"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="191" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="181" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="187" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="182" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="184"/>
-      <c r="V18" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="185" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="192"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="202" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="203" t="s">
+      <c r="H19" s="177"/>
+      <c r="I19" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="204"/>
-      <c r="I19" s="203" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="204"/>
-      <c r="K19" s="181"/>
-      <c r="M19" s="188"/>
-      <c r="O19" s="179" t="s">
+      <c r="J19" s="177"/>
+      <c r="K19" s="156"/>
+      <c r="M19" s="162"/>
+      <c r="O19" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="179" t="s">
+      <c r="P19" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="179" t="s">
+      <c r="Q19" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="179" t="s">
+      <c r="R19" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="179" t="s">
+      <c r="S19" s="154" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="179" t="s">
+      <c r="V19" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="179" t="s">
+      <c r="W19" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="179" t="s">
+      <c r="X19" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="179" t="s">
+      <c r="Y19" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="179" t="s">
+      <c r="Z19" s="154" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="186"/>
+      <c r="AB19" s="161"/>
     </row>
     <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="192"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="102" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="94" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="44" t="s">
@@ -10433,17 +9299,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="180"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="180"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="180"/>
-      <c r="W20" s="180"/>
-      <c r="X20" s="180"/>
-      <c r="Y20" s="180"/>
-      <c r="Z20" s="180"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -10455,38 +9321,38 @@
       <c r="A21" s="8">
         <v>1</v>
       </c>
-      <c r="B21" s="152" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="148">
+      <c r="B21" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="130">
         <v>3.6110000000000002</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="205" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="131">
+        <v>84</v>
+      </c>
+      <c r="E21" s="174" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="117">
         <v>45899</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="117">
         <v>45901</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="117">
         <v>45908</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="117">
         <v>45909</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="117">
         <v>45912</v>
       </c>
       <c r="K21" s="23">
         <f>K4*C21</f>
         <v>3270887.1320000002</v>
       </c>
-      <c r="M21" s="95"/>
+      <c r="M21" s="87"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
@@ -10529,36 +9395,36 @@
       <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="148">
+      <c r="B22" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="130">
         <v>3.92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="205"/>
-      <c r="F22" s="131">
+        <v>84</v>
+      </c>
+      <c r="E22" s="174"/>
+      <c r="F22" s="117">
         <v>45913</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="117">
         <v>45914</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="117">
         <v>45919</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="117">
         <v>45920</v>
       </c>
-      <c r="J22" s="131">
+      <c r="J22" s="117">
         <v>45922</v>
       </c>
       <c r="K22" s="23">
         <f>K4*C22</f>
         <v>3550783.04</v>
       </c>
-      <c r="M22" s="95"/>
+      <c r="M22" s="87"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
@@ -10601,29 +9467,29 @@
       <c r="A23" s="8">
         <v>3</v>
       </c>
-      <c r="B23" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="148">
+      <c r="B23" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="130">
         <v>0.28000000000000003</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="205"/>
-      <c r="F23" s="131">
+        <v>117</v>
+      </c>
+      <c r="E23" s="174"/>
+      <c r="F23" s="117">
         <v>45910</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="117">
         <v>45911</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H23" s="117">
         <v>45912</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="117">
         <v>45912</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="117">
         <v>45912</v>
       </c>
       <c r="K23" s="23">
@@ -10673,36 +9539,36 @@
       <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="148">
+      <c r="B24" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="130">
         <v>0.313</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="205"/>
-      <c r="F24" s="131">
+        <v>117</v>
+      </c>
+      <c r="E24" s="174"/>
+      <c r="F24" s="117">
         <v>45927</v>
       </c>
-      <c r="G24" s="131">
+      <c r="G24" s="117">
         <v>45928</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="117">
         <v>45928</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="117">
         <v>45928</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="117">
         <v>45928</v>
       </c>
       <c r="K24" s="23">
         <f>C24*K4</f>
         <v>283519.15600000002</v>
       </c>
-      <c r="M24" s="95"/>
+      <c r="M24" s="87"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
@@ -10745,29 +9611,29 @@
       <c r="A25" s="8">
         <v>5</v>
       </c>
-      <c r="B25" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="148">
+      <c r="B25" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="130">
         <v>0.31900000000000001</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="205"/>
-      <c r="F25" s="131">
+        <v>117</v>
+      </c>
+      <c r="E25" s="174"/>
+      <c r="F25" s="117">
         <v>45915</v>
       </c>
-      <c r="G25" s="131">
+      <c r="G25" s="117">
         <v>45916</v>
       </c>
-      <c r="H25" s="131">
+      <c r="H25" s="117">
         <v>45916</v>
       </c>
-      <c r="I25" s="131">
+      <c r="I25" s="117">
         <v>45916</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="117">
         <v>45916</v>
       </c>
       <c r="K25" s="23">
@@ -10817,31 +9683,31 @@
       <c r="A26" s="8">
         <v>6</v>
       </c>
-      <c r="B26" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="148">
+      <c r="B26" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="130">
         <v>4.9580000000000002</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="131">
+        <v>158</v>
+      </c>
+      <c r="F26" s="117">
         <v>45903</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="117">
         <v>45904</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="117">
         <v>45909</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="117">
         <v>45910</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="117">
         <v>45913</v>
       </c>
       <c r="K26" s="23">
@@ -10891,36 +9757,36 @@
       <c r="A27" s="8">
         <v>7</v>
       </c>
-      <c r="B27" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="148">
+      <c r="B27" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="130">
         <v>1.6060000000000001</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="131">
+      <c r="F27" s="117">
         <v>45914</v>
       </c>
-      <c r="G27" s="131">
+      <c r="G27" s="117">
         <v>45915</v>
       </c>
-      <c r="H27" s="131">
+      <c r="H27" s="117">
         <v>45917</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="117">
         <v>45918</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="117">
         <v>45919</v>
       </c>
       <c r="K27" s="23">
         <f>C27*K4</f>
         <v>1454734.0720000002</v>
       </c>
-      <c r="M27" s="95"/>
+      <c r="M27" s="87"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
@@ -10963,29 +9829,29 @@
       <c r="A28" s="8">
         <v>8</v>
       </c>
-      <c r="B28" s="146" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="148">
+      <c r="B28" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="130">
         <v>0.32300000000000001</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="131">
+      <c r="F28" s="117">
         <v>45920</v>
       </c>
-      <c r="G28" s="131">
+      <c r="G28" s="117">
         <v>45921</v>
       </c>
-      <c r="H28" s="131">
+      <c r="H28" s="117">
         <v>45926</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="117">
         <v>45927</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="117">
         <v>45930</v>
       </c>
       <c r="K28" s="23">
@@ -11035,36 +9901,36 @@
       <c r="A29" s="8">
         <v>9</v>
       </c>
-      <c r="B29" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="147">
+      <c r="B29" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="129">
         <v>4.9470000000000001</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="131">
+        <v>84</v>
+      </c>
+      <c r="E29" s="137"/>
+      <c r="F29" s="117">
         <v>45899</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="117">
         <v>45900</v>
       </c>
-      <c r="H29" s="131">
+      <c r="H29" s="117">
         <v>45906</v>
       </c>
-      <c r="I29" s="131">
+      <c r="I29" s="117">
         <v>45907</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="117">
         <v>45910</v>
       </c>
       <c r="K29" s="23">
         <f>C29*K4</f>
         <v>4481051.9639999997</v>
       </c>
-      <c r="M29" s="95"/>
+      <c r="M29" s="87"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -11107,29 +9973,29 @@
       <c r="A30" s="8">
         <v>10</v>
       </c>
-      <c r="B30" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="147">
+      <c r="B30" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="129">
         <v>2.75</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="155"/>
-      <c r="F30" s="131">
+        <v>84</v>
+      </c>
+      <c r="E30" s="137"/>
+      <c r="F30" s="117">
         <v>45911</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="117">
         <v>45912</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="117">
         <v>45917</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="117">
         <v>45918</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="117">
         <v>45921</v>
       </c>
       <c r="K30" s="23">
@@ -11179,36 +10045,36 @@
       <c r="A31" s="8">
         <v>11</v>
       </c>
-      <c r="B31" s="146" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="153">
+      <c r="B31" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="135">
         <v>0.27</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="155"/>
-      <c r="F31" s="131">
+        <v>84</v>
+      </c>
+      <c r="E31" s="137"/>
+      <c r="F31" s="117">
         <v>45920</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="117">
         <v>45920</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="117">
         <v>45920</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="117">
         <v>45922</v>
       </c>
-      <c r="J31" s="131">
+      <c r="J31" s="117">
         <v>45922</v>
       </c>
       <c r="K31" s="23">
         <f>C31*K4</f>
         <v>244569.24000000002</v>
       </c>
-      <c r="M31" s="95"/>
+      <c r="M31" s="87"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
@@ -11251,29 +10117,29 @@
       <c r="A32" s="8">
         <v>12</v>
       </c>
-      <c r="B32" s="146" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="147">
+      <c r="B32" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="129">
         <v>0.68799999999999994</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="131">
+      <c r="F32" s="117">
         <v>45927</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="117">
         <v>45928</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="117">
         <v>45928</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="117">
         <v>45928</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="117">
         <v>45928</v>
       </c>
       <c r="K32" s="23">
@@ -11323,15 +10189,15 @@
       <c r="A33" s="8">
         <v>13</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
       <c r="K33" s="23">
         <f>C33*K4</f>
         <v>0</v>
@@ -11378,7 +10244,7 @@
     <row r="34" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="154">
+      <c r="C34" s="136">
         <f>SUM(C21:C33)</f>
         <v>23.984999999999999</v>
       </c>
@@ -11449,18 +10315,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -11474,6 +10328,18 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">

--- a/Test/Micro Plan - TA-416 Sep'25.xlsx
+++ b/Test/Micro Plan - TA-416 Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED8A36-AD72-4DAA-9890-2BE45249486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6342C0D-813C-487E-8089-A28BA47C7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1547,9 +1547,117 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,51 +1673,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1625,86 +1688,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1744,16 +1738,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1774,16 +1758,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1794,6 +1768,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1814,6 +1808,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1824,6 +1828,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1834,16 +1848,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1864,16 +1868,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1884,6 +1878,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1894,16 +1898,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1914,6 +1908,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1924,11 +1968,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1944,6 +1988,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1984,16 +2038,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2004,6 +2048,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2014,16 +2068,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2034,6 +2078,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2054,6 +2128,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2074,16 +2158,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2104,6 +2178,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2114,6 +2198,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2124,16 +2228,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2144,6 +2238,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2234,16 +2358,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2264,6 +2378,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2274,6 +2408,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2294,6 +2498,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2314,16 +2528,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2334,6 +2538,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2344,16 +2578,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2364,6 +2588,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2424,11 +2678,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2454,6 +2708,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2464,16 +2728,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2484,6 +2738,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2494,16 +2758,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2514,6 +2768,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2544,6 +2808,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2554,16 +2868,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2574,6 +2878,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2584,6 +2918,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2604,6 +2948,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2614,16 +3008,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2634,6 +3018,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2644,6 +3068,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2654,16 +3118,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2674,6 +3128,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2684,16 +3148,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2704,6 +3158,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2714,16 +3198,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2744,6 +3218,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2764,16 +3258,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2784,6 +3268,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2804,6 +3298,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2834,531 +3348,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3924,6 +3918,16 @@
     </dxf>
     <dxf>
       <font>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="20"/>
       </font>
       <fill>
@@ -3946,16 +3950,6 @@
       <font>
         <color indexed="20"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4786,137 +4780,137 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="151" t="s">
+      <c r="D18" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="148" t="s">
+      <c r="F18" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="163" t="s">
+      <c r="H18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="156" t="s">
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="148" t="s">
+      <c r="R18" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="157" t="s">
+      <c r="T18" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="159"/>
-      <c r="AA18" s="157" t="s">
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="180"/>
+      <c r="AA18" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="160" t="s">
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="181" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="168" t="s">
+      <c r="A19" s="188"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168" t="s">
+      <c r="I19" s="173"/>
+      <c r="J19" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168" t="s">
+      <c r="K19" s="173"/>
+      <c r="L19" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="168"/>
-      <c r="N19" s="164" t="s">
+      <c r="M19" s="173"/>
+      <c r="N19" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="164" t="s">
+      <c r="O19" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="156"/>
-      <c r="R19" s="162"/>
-      <c r="T19" s="154" t="s">
+      <c r="P19" s="177"/>
+      <c r="R19" s="184"/>
+      <c r="T19" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="154" t="s">
+      <c r="U19" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="154" t="s">
+      <c r="V19" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="154" t="s">
+      <c r="W19" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="154" t="s">
+      <c r="X19" s="175" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="154" t="s">
+      <c r="AA19" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="154" t="s">
+      <c r="AB19" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="154" t="s">
+      <c r="AC19" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="154" t="s">
+      <c r="AD19" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="154" t="s">
+      <c r="AE19" s="175" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="161"/>
+      <c r="AG19" s="182"/>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="153"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="152"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="188"/>
       <c r="H20" s="94" t="s">
         <v>10</v>
       </c>
@@ -4935,25 +4929,25 @@
       <c r="M20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
       <c r="P20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="176"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
+      <c r="AA20" s="176"/>
+      <c r="AB20" s="176"/>
+      <c r="AC20" s="176"/>
+      <c r="AD20" s="176"/>
+      <c r="AE20" s="176"/>
       <c r="AF20" s="19" t="s">
         <v>51</v>
       </c>
@@ -5224,7 +5218,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="102"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="166"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -5282,7 +5276,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="167"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
@@ -5637,16 +5631,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5659,13 +5650,16 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
@@ -5740,17 +5734,17 @@
     <cfRule type="expression" dxfId="223" priority="1243" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B26)+COUNTIF($D$142:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="1244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="1245" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="1245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1246" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="1246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="1247" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="1244" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="1247" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
@@ -5767,55 +5761,55 @@
     <cfRule type="duplicateValues" dxfId="212" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="211" priority="1220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="1221" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="1220" stopIfTrue="1">
       <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="1221" stopIfTrue="1">
-      <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="209" priority="1222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="1223" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="1224" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="1225" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="1226" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="1227" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="1228" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="1229" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="1230" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="1231" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="1232" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="1233" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="1234" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="1235" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="1222" stopIfTrue="1">
       <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="1223" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="1224" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="1225" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="1226" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="1227" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="1228" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="1229" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="1230" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="1231" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="1232" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="1233" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="1234" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="1235" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -5941,7 +5935,7 @@
       <c r="Q4" s="70">
         <v>0</v>
       </c>
-      <c r="R4" s="169" t="s">
+      <c r="R4" s="190" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5984,14 +5978,14 @@
       <c r="Q5" s="70">
         <v>0</v>
       </c>
-      <c r="R5" s="170"/>
+      <c r="R5" s="191"/>
     </row>
     <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="73">
         <v>160</v>
       </c>
@@ -6033,8 +6027,8 @@
   </sheetPr>
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6051,19 +6045,18 @@
     <col min="11" max="11" width="14.7265625" style="4" customWidth="1"/>
     <col min="12" max="13" width="10.7265625" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="15.54296875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.54296875" style="180" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="180" customWidth="1"/>
-    <col min="20" max="20" width="28.1796875" style="180" customWidth="1"/>
-    <col min="21" max="21" width="3.1796875" style="180" customWidth="1"/>
-    <col min="22" max="27" width="8.7265625" style="180" customWidth="1"/>
-    <col min="28" max="28" width="3.1796875" style="180" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" style="180" customWidth="1"/>
-    <col min="30" max="30" width="13.26953125" style="180" customWidth="1"/>
-    <col min="31" max="32" width="10.7265625" style="180" customWidth="1"/>
-    <col min="33" max="33" width="11.26953125" style="180" customWidth="1"/>
-    <col min="34" max="34" width="8.1796875" style="180" customWidth="1"/>
-    <col min="35" max="35" width="38.1796875" style="180" customWidth="1"/>
+    <col min="15" max="18" width="15.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.1796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
+    <col min="22" max="27" width="8.7265625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.26953125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.26953125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.1796875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="38.1796875" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
@@ -6095,46 +6088,27 @@
       <c r="I1" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="J1" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="198" t="s">
+      <c r="K1" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="198" t="s">
+      <c r="L1" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="197" t="s">
+      <c r="M1" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="165" t="s">
         <v>39</v>
       </c>
       <c r="O1" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="178" t="s">
+      <c r="P1" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
@@ -6152,7 +6126,7 @@
       <c r="E2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="199">
+      <c r="F2" s="167">
         <v>30</v>
       </c>
       <c r="G2" s="122" t="s">
@@ -6181,25 +6155,6 @@
         <v>861022</v>
       </c>
       <c r="P2" s="101"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
@@ -6248,22 +6203,22 @@
         <v>1610385.43</v>
       </c>
       <c r="P3" s="101"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="T3" s="181"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="182"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="T3" s="150"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -6308,22 +6263,22 @@
         <v>875860</v>
       </c>
       <c r="P4" s="101"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="182"/>
-      <c r="T4" s="181"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="182"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="179"/>
-      <c r="AG4" s="179"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="151"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
     </row>
     <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -6372,22 +6327,22 @@
         <v>1610385.43</v>
       </c>
       <c r="P5" s="101"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="T5" s="185"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="184"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="T5" s="154"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="153"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="153"/>
     </row>
     <row r="6" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
@@ -6432,22 +6387,22 @@
         <v>712728.77</v>
       </c>
       <c r="P6" s="101"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="T6" s="187"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="189"/>
-      <c r="AE6" s="189"/>
-      <c r="AF6" s="189"/>
-      <c r="AG6" s="189"/>
-      <c r="AH6" s="190"/>
-      <c r="AI6" s="191"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="T6" s="155"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AC6" s="157"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="157"/>
+      <c r="AF6" s="157"/>
+      <c r="AG6" s="157"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="159"/>
     </row>
     <row r="7" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
@@ -6496,22 +6451,22 @@
         <v>789838</v>
       </c>
       <c r="P7" s="101"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="T7" s="187"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="191"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="T7" s="155"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+      <c r="AF7" s="157"/>
+      <c r="AG7" s="157"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="159"/>
     </row>
     <row r="8" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -6556,22 +6511,22 @@
         <v>1004656</v>
       </c>
       <c r="P8" s="101"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="T8" s="187"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AC8" s="189"/>
-      <c r="AD8" s="189"/>
-      <c r="AE8" s="189"/>
-      <c r="AF8" s="189"/>
-      <c r="AG8" s="189"/>
-      <c r="AH8" s="190"/>
-      <c r="AI8" s="191"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="T8" s="155"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="159"/>
     </row>
     <row r="9" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -6620,22 +6575,22 @@
         <v>861022</v>
       </c>
       <c r="P9" s="101"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="T9" s="187"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AC9" s="189"/>
-      <c r="AD9" s="189"/>
-      <c r="AE9" s="189"/>
-      <c r="AF9" s="189"/>
-      <c r="AG9" s="189"/>
-      <c r="AH9" s="190"/>
-      <c r="AI9" s="191"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="T9" s="155"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="159"/>
     </row>
     <row r="10" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -6680,22 +6635,22 @@
         <v>974538</v>
       </c>
       <c r="P10" s="101"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="T10" s="187"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="188"/>
-      <c r="AA10" s="188"/>
-      <c r="AC10" s="189"/>
-      <c r="AD10" s="189"/>
-      <c r="AE10" s="189"/>
-      <c r="AF10" s="189"/>
-      <c r="AG10" s="189"/>
-      <c r="AH10" s="190"/>
-      <c r="AI10" s="191"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="T10" s="155"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="159"/>
     </row>
     <row r="11" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -6744,22 +6699,22 @@
         <v>1492772</v>
       </c>
       <c r="P11" s="101"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="T11" s="187"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="188"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="188"/>
-      <c r="AA11" s="188"/>
-      <c r="AC11" s="189"/>
-      <c r="AD11" s="189"/>
-      <c r="AE11" s="189"/>
-      <c r="AF11" s="189"/>
-      <c r="AG11" s="189"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="191"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="T11" s="155"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="157"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="159"/>
     </row>
     <row r="12" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -6804,22 +6759,22 @@
         <v>568304</v>
       </c>
       <c r="P12" s="101"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="T12" s="187"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="188"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="190"/>
-      <c r="AI12" s="191"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="T12" s="155"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="159"/>
     </row>
     <row r="13" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
@@ -6868,22 +6823,22 @@
         <v>827835</v>
       </c>
       <c r="P13" s="101"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="T13" s="187"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="189"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="190"/>
-      <c r="AI13" s="191"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="T13" s="155"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AC13" s="157"/>
+      <c r="AD13" s="157"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="157"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="159"/>
     </row>
     <row r="14" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -6928,22 +6883,22 @@
         <v>371402</v>
       </c>
       <c r="P14" s="101"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="186"/>
-      <c r="T14" s="187"/>
-      <c r="V14" s="188"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AC14" s="189"/>
-      <c r="AD14" s="189"/>
-      <c r="AE14" s="189"/>
-      <c r="AF14" s="189"/>
-      <c r="AG14" s="189"/>
-      <c r="AH14" s="190"/>
-      <c r="AI14" s="191"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="T14" s="155"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="157"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="159"/>
       <c r="AK14" s="101"/>
     </row>
     <row r="15" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6991,22 +6946,22 @@
         <v>1062230</v>
       </c>
       <c r="P15" s="101"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="186"/>
-      <c r="T15" s="187"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="188"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="188"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="190"/>
-      <c r="AI15" s="191"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="T15" s="155"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="157"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="157"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="159"/>
     </row>
     <row r="16" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
@@ -7052,22 +7007,22 @@
         <v>828626</v>
       </c>
       <c r="P16" s="101"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="T16" s="187"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="188"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AC16" s="189"/>
-      <c r="AD16" s="189"/>
-      <c r="AE16" s="189"/>
-      <c r="AF16" s="189"/>
-      <c r="AG16" s="189"/>
-      <c r="AH16" s="190"/>
-      <c r="AI16" s="191"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="T16" s="155"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="159"/>
     </row>
     <row r="17" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
@@ -7116,22 +7071,22 @@
         <v>470947</v>
       </c>
       <c r="P17" s="101"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="186"/>
-      <c r="T17" s="187"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AC17" s="189"/>
-      <c r="AD17" s="189"/>
-      <c r="AE17" s="189"/>
-      <c r="AF17" s="189"/>
-      <c r="AG17" s="189"/>
-      <c r="AH17" s="190"/>
-      <c r="AI17" s="191"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="T17" s="155"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AC17" s="157"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="159"/>
     </row>
     <row r="18" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
@@ -7175,22 +7130,22 @@
         <v>828626</v>
       </c>
       <c r="P18" s="101"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="186"/>
-      <c r="T18" s="187"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="188"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="188"/>
-      <c r="AC18" s="189"/>
-      <c r="AD18" s="189"/>
-      <c r="AE18" s="189"/>
-      <c r="AF18" s="189"/>
-      <c r="AG18" s="189"/>
-      <c r="AH18" s="190"/>
-      <c r="AI18" s="191"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="T18" s="155"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="159"/>
     </row>
     <row r="19" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
@@ -7239,22 +7194,22 @@
         <v>974538</v>
       </c>
       <c r="P19" s="101"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="T19" s="187"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AC19" s="189"/>
-      <c r="AD19" s="189"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="189"/>
-      <c r="AG19" s="189"/>
-      <c r="AH19" s="190"/>
-      <c r="AI19" s="191"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="T19" s="155"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="159"/>
     </row>
     <row r="20" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
@@ -7299,22 +7254,22 @@
         <v>669569.35</v>
       </c>
       <c r="P20" s="101"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="T20" s="187"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
-      <c r="AC20" s="189"/>
-      <c r="AD20" s="189"/>
-      <c r="AE20" s="189"/>
-      <c r="AF20" s="189"/>
-      <c r="AG20" s="189"/>
-      <c r="AH20" s="190"/>
-      <c r="AI20" s="191"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="T20" s="155"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AC20" s="157"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="159"/>
     </row>
     <row r="21" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
@@ -7359,22 +7314,22 @@
         <v>359483</v>
       </c>
       <c r="P21" s="101"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="T21" s="187"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189"/>
-      <c r="AF21" s="189"/>
-      <c r="AG21" s="189"/>
-      <c r="AH21" s="190"/>
-      <c r="AI21" s="191"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="T21" s="155"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="157"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="159"/>
     </row>
     <row r="22" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
@@ -7423,22 +7378,22 @@
         <v>666437</v>
       </c>
       <c r="P22" s="101"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="186"/>
-      <c r="T22" s="187"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="188"/>
-      <c r="X22" s="188"/>
-      <c r="Y22" s="188"/>
-      <c r="Z22" s="188"/>
-      <c r="AA22" s="188"/>
-      <c r="AC22" s="189"/>
-      <c r="AD22" s="189"/>
-      <c r="AE22" s="189"/>
-      <c r="AF22" s="189"/>
-      <c r="AG22" s="189"/>
-      <c r="AH22" s="190"/>
-      <c r="AI22" s="191"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="T22" s="155"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="157"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="159"/>
     </row>
     <row r="23" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
@@ -7483,22 +7438,22 @@
         <v>837742</v>
       </c>
       <c r="P23" s="101"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="T23" s="187"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="188"/>
-      <c r="X23" s="188"/>
-      <c r="Y23" s="188"/>
-      <c r="Z23" s="188"/>
-      <c r="AA23" s="188"/>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189"/>
-      <c r="AE23" s="189"/>
-      <c r="AF23" s="189"/>
-      <c r="AG23" s="189"/>
-      <c r="AH23" s="190"/>
-      <c r="AI23" s="191"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="T23" s="155"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AC23" s="157"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="157"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="159"/>
     </row>
     <row r="24" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
@@ -7547,21 +7502,21 @@
         <v>359483</v>
       </c>
       <c r="P24" s="101"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="186"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="188"/>
-      <c r="Z24" s="188"/>
-      <c r="AA24" s="188"/>
-      <c r="AC24" s="189"/>
-      <c r="AD24" s="189"/>
-      <c r="AE24" s="189"/>
-      <c r="AF24" s="189"/>
-      <c r="AG24" s="189"/>
-      <c r="AH24" s="190"/>
-      <c r="AI24" s="191"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AC24" s="157"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="157"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
@@ -7606,22 +7561,22 @@
         <v>828626</v>
       </c>
       <c r="P25" s="101"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="T25" s="187"/>
-      <c r="V25" s="188"/>
-      <c r="W25" s="188"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="188"/>
-      <c r="Z25" s="188"/>
-      <c r="AA25" s="188"/>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="189"/>
-      <c r="AH25" s="190"/>
-      <c r="AI25" s="191"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="T25" s="155"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="157"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="159"/>
     </row>
     <row r="26" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
@@ -7639,7 +7594,7 @@
       <c r="E26" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="200">
+      <c r="F26" s="168">
         <v>20</v>
       </c>
       <c r="G26" s="122" t="s">
@@ -7670,22 +7625,22 @@
         <v>450628</v>
       </c>
       <c r="P26" s="101"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="186"/>
-      <c r="T26" s="187"/>
-      <c r="V26" s="188"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="188"/>
-      <c r="Z26" s="188"/>
-      <c r="AA26" s="188"/>
-      <c r="AC26" s="189"/>
-      <c r="AD26" s="189"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="190"/>
-      <c r="AI26" s="191"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="142"/>
+      <c r="T26" s="155"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AC26" s="157"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="157"/>
+      <c r="AF26" s="157"/>
+      <c r="AG26" s="157"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="159"/>
     </row>
     <row r="27" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
@@ -7730,22 +7685,22 @@
         <v>666437</v>
       </c>
       <c r="P27" s="101"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="T27" s="187"/>
-      <c r="V27" s="188"/>
-      <c r="W27" s="188"/>
-      <c r="X27" s="188"/>
-      <c r="Y27" s="188"/>
-      <c r="Z27" s="188"/>
-      <c r="AA27" s="188"/>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189"/>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="189"/>
-      <c r="AG27" s="189"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="191"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="T27" s="155"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AC27" s="157"/>
+      <c r="AD27" s="157"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="157"/>
+      <c r="AG27" s="157"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="159"/>
     </row>
     <row r="28" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
@@ -7794,22 +7749,22 @@
         <v>450628</v>
       </c>
       <c r="P28" s="101"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="186"/>
-      <c r="T28" s="187"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AC28" s="189"/>
-      <c r="AD28" s="189"/>
-      <c r="AE28" s="189"/>
-      <c r="AF28" s="189"/>
-      <c r="AG28" s="189"/>
-      <c r="AH28" s="190"/>
-      <c r="AI28" s="191"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="142"/>
+      <c r="T28" s="155"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AC28" s="157"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="157"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="159"/>
     </row>
     <row r="29" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
@@ -7854,22 +7809,22 @@
         <v>666437</v>
       </c>
       <c r="P29" s="101"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="186"/>
-      <c r="T29" s="187"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="188"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="188"/>
-      <c r="Z29" s="188"/>
-      <c r="AA29" s="188"/>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189"/>
-      <c r="AE29" s="189"/>
-      <c r="AF29" s="189"/>
-      <c r="AG29" s="189"/>
-      <c r="AH29" s="190"/>
-      <c r="AI29" s="191"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="142"/>
+      <c r="T29" s="155"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="157"/>
+      <c r="AG29" s="157"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="159"/>
     </row>
     <row r="30" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
@@ -7918,22 +7873,22 @@
         <v>359483</v>
       </c>
       <c r="P30" s="101"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="186"/>
-      <c r="T30" s="187"/>
-      <c r="V30" s="188"/>
-      <c r="W30" s="188"/>
-      <c r="X30" s="188"/>
-      <c r="Y30" s="188"/>
-      <c r="Z30" s="188"/>
-      <c r="AA30" s="188"/>
-      <c r="AC30" s="189"/>
-      <c r="AD30" s="189"/>
-      <c r="AE30" s="189"/>
-      <c r="AF30" s="189"/>
-      <c r="AG30" s="189"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="191"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="T30" s="155"/>
+      <c r="V30" s="156"/>
+      <c r="W30" s="156"/>
+      <c r="X30" s="156"/>
+      <c r="Y30" s="156"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="159"/>
     </row>
     <row r="31" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
@@ -7978,22 +7933,22 @@
         <v>450628</v>
       </c>
       <c r="P31" s="101"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="T31" s="187"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="188"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="188"/>
-      <c r="Z31" s="188"/>
-      <c r="AA31" s="188"/>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189"/>
-      <c r="AE31" s="189"/>
-      <c r="AF31" s="189"/>
-      <c r="AG31" s="189"/>
-      <c r="AH31" s="190"/>
-      <c r="AI31" s="191"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="142"/>
+      <c r="T31" s="155"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="159"/>
     </row>
     <row r="32" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -8005,22 +7960,22 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="186"/>
-      <c r="T32" s="187"/>
-      <c r="V32" s="188"/>
-      <c r="W32" s="188"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="188"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="188"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="189"/>
-      <c r="AE32" s="189"/>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="189"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="191"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="T32" s="155"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="159"/>
     </row>
     <row r="33" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
@@ -8032,22 +7987,22 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="186"/>
-      <c r="T33" s="187"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="188"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="188"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AC33" s="189"/>
-      <c r="AD33" s="189"/>
-      <c r="AE33" s="189"/>
-      <c r="AF33" s="189"/>
-      <c r="AG33" s="189"/>
-      <c r="AH33" s="190"/>
-      <c r="AI33" s="191"/>
+      <c r="Q33" s="142"/>
+      <c r="R33" s="142"/>
+      <c r="T33" s="155"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="159"/>
     </row>
     <row r="34" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
@@ -8059,22 +8014,22 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="T34" s="187"/>
-      <c r="V34" s="188"/>
-      <c r="W34" s="188"/>
-      <c r="X34" s="188"/>
-      <c r="Y34" s="188"/>
-      <c r="Z34" s="188"/>
-      <c r="AA34" s="188"/>
-      <c r="AC34" s="189"/>
-      <c r="AD34" s="189"/>
-      <c r="AE34" s="189"/>
-      <c r="AF34" s="189"/>
-      <c r="AG34" s="189"/>
-      <c r="AH34" s="190"/>
-      <c r="AI34" s="191"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="142"/>
+      <c r="T34" s="155"/>
+      <c r="V34" s="156"/>
+      <c r="W34" s="156"/>
+      <c r="X34" s="156"/>
+      <c r="Y34" s="156"/>
+      <c r="Z34" s="156"/>
+      <c r="AA34" s="156"/>
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="158"/>
+      <c r="AI34" s="159"/>
     </row>
     <row r="35" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
@@ -8086,22 +8041,22 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="186"/>
-      <c r="T35" s="187"/>
-      <c r="V35" s="188"/>
-      <c r="W35" s="188"/>
-      <c r="X35" s="188"/>
-      <c r="Y35" s="188"/>
-      <c r="Z35" s="188"/>
-      <c r="AA35" s="188"/>
-      <c r="AC35" s="189"/>
-      <c r="AD35" s="189"/>
-      <c r="AE35" s="189"/>
-      <c r="AF35" s="189"/>
-      <c r="AG35" s="189"/>
-      <c r="AH35" s="190"/>
-      <c r="AI35" s="191"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="T35" s="155"/>
+      <c r="V35" s="156"/>
+      <c r="W35" s="156"/>
+      <c r="X35" s="156"/>
+      <c r="Y35" s="156"/>
+      <c r="Z35" s="156"/>
+      <c r="AA35" s="156"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
+      <c r="AF35" s="157"/>
+      <c r="AG35" s="157"/>
+      <c r="AH35" s="158"/>
+      <c r="AI35" s="159"/>
     </row>
     <row r="36" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
@@ -8120,21 +8075,21 @@
       <c r="N36" s="85"/>
       <c r="O36" s="101"/>
       <c r="P36" s="142"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="186"/>
-      <c r="V36" s="188"/>
-      <c r="W36" s="188"/>
-      <c r="X36" s="188"/>
-      <c r="Y36" s="188"/>
-      <c r="Z36" s="188"/>
-      <c r="AA36" s="188"/>
-      <c r="AC36" s="189"/>
-      <c r="AD36" s="189"/>
-      <c r="AE36" s="189"/>
-      <c r="AF36" s="189"/>
-      <c r="AG36" s="189"/>
-      <c r="AH36" s="190"/>
-      <c r="AI36" s="191"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="142"/>
+      <c r="V36" s="156"/>
+      <c r="W36" s="156"/>
+      <c r="X36" s="156"/>
+      <c r="Y36" s="156"/>
+      <c r="Z36" s="156"/>
+      <c r="AA36" s="156"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="157"/>
+      <c r="AE36" s="157"/>
+      <c r="AF36" s="157"/>
+      <c r="AG36" s="157"/>
+      <c r="AH36" s="158"/>
+      <c r="AI36" s="159"/>
     </row>
     <row r="37" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
@@ -8159,60 +8114,60 @@
         <v>23491296.98</v>
       </c>
       <c r="P37" s="143"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="192"/>
-      <c r="V37" s="193"/>
-      <c r="W37" s="193"/>
-      <c r="X37" s="193"/>
-      <c r="Y37" s="193"/>
-      <c r="Z37" s="193"/>
-      <c r="AA37" s="193"/>
-      <c r="AC37" s="194"/>
-      <c r="AD37" s="194"/>
-      <c r="AE37" s="194"/>
-      <c r="AF37" s="195"/>
-      <c r="AG37" s="195"/>
-      <c r="AH37" s="195"/>
-      <c r="AI37" s="195"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="160"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AC37" s="162"/>
+      <c r="AD37" s="162"/>
+      <c r="AE37" s="162"/>
+      <c r="AF37" s="163"/>
+      <c r="AG37" s="163"/>
+      <c r="AH37" s="163"/>
+      <c r="AI37" s="163"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AC38" s="196"/>
-      <c r="AD38" s="196"/>
-      <c r="AE38" s="196"/>
-      <c r="AF38" s="196"/>
-      <c r="AG38" s="196"/>
-      <c r="AH38" s="196"/>
-      <c r="AI38" s="196"/>
+      <c r="AC38" s="164"/>
+      <c r="AD38" s="164"/>
+      <c r="AE38" s="164"/>
+      <c r="AF38" s="164"/>
+      <c r="AG38" s="164"/>
+      <c r="AH38" s="164"/>
+      <c r="AI38" s="164"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="194" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10 B12:B31">
     <cfRule type="duplicateValues" dxfId="192" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="191" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="238"/>
     <cfRule type="duplicateValues" dxfId="190" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
     <cfRule type="duplicateValues" dxfId="188" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="187" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="59"/>
     <cfRule type="duplicateValues" dxfId="186" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12 B3 B5:B7 B14">
     <cfRule type="duplicateValues" dxfId="183" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="182" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="180" priority="232"/>
@@ -8224,16 +8179,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
     <cfRule type="duplicateValues" dxfId="176" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19 B9:B10">
-    <cfRule type="duplicateValues" dxfId="173" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B31">
-    <cfRule type="duplicateValues" dxfId="171" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
     <cfRule type="duplicateValues" dxfId="169" priority="2054"/>
@@ -8279,22 +8234,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="162" priority="1" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="162" priority="2" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J14">
-    <cfRule type="containsText" dxfId="160" priority="30" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J13)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="32" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="31" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="32" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J13)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="30" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J16 K16 L14:N14 K15:N15">
@@ -8311,11 +8266,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J23">
-    <cfRule type="containsText" dxfId="154" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="154" priority="22" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="22" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J23">
@@ -8325,64 +8280,64 @@
     <cfRule type="containsText" dxfId="151" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="19" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="150" priority="20" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="19" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="20" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J31">
-    <cfRule type="containsText" dxfId="148" priority="5" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="7" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:K10">
-    <cfRule type="containsText" dxfId="145" priority="162" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="145" priority="169" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="167" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="166" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="163" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="163" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="164" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="166" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="167" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="168" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="169" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="containsText" dxfId="137" priority="210" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="210" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="211" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="containsText" dxfId="135" priority="145" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="135" priority="146" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K21">
@@ -8391,11 +8346,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K31">
-    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="132" priority="4" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="4" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N2">
@@ -8407,22 +8362,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:N4 L6:N6">
-    <cfRule type="containsText" dxfId="128" priority="224" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="128" priority="225" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="224" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="225" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="226" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:N16">
-    <cfRule type="containsText" dxfId="125" priority="160" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="125" priority="161" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="160" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="161" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:N21">
@@ -8434,42 +8389,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:N23">
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="121" priority="111" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="118" priority="110" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="112" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="113" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="113" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="114" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:N36">
-    <cfRule type="containsText" dxfId="115" priority="841" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J36)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="892" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="891" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="892" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J36)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="841" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K6">
-    <cfRule type="containsText" dxfId="112" priority="197" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="112" priority="198" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="197" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20 J17:J20">
@@ -8499,11 +8454,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:N4">
-    <cfRule type="containsText" dxfId="104" priority="215" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="104" priority="216" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="215" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="216" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:N14">
@@ -8512,11 +8467,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:N15">
-    <cfRule type="containsText" dxfId="101" priority="200" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="101" priority="201" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="200" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="201" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:N12">
@@ -8528,14 +8483,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:N14">
-    <cfRule type="containsText" dxfId="97" priority="181" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K13)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="183" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="96" priority="182" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K13)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="181" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:N18">
@@ -8557,53 +8512,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:N23">
-    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="90" priority="119" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="117" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="115" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="120" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="118" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="116" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="117" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="118" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="119" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="120" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:N25">
     <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="100" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="100" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:N27">
-    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K26)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="92" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="92" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K26)))</formula>
+    <cfRule type="containsText" dxfId="79" priority="90" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:N29">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K28)))</formula>
@@ -8621,11 +8576,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N2">
-    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="53" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:N6">
@@ -8637,39 +8592,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:N6">
-    <cfRule type="containsText" dxfId="68" priority="194" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="196" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="195" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="196" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L6)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="194" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:N10">
-    <cfRule type="containsText" dxfId="65" priority="170" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="65" priority="175" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="171" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="64" priority="177" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="176" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="172" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="62" priority="170" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="171" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="172" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="173" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="59" priority="173" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="174" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="175" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="176" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="177" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="58" priority="174" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8694,11 +8649,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:N14 J23:N23">
-    <cfRule type="containsText" dxfId="51" priority="219" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="221" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="219" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="221" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:N14">
@@ -8721,53 +8676,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:N16">
-    <cfRule type="containsText" dxfId="44" priority="151" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="153" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="152" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="153" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="154" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="42" priority="151" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="155" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="41" priority="155" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="159" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="156" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="159" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="38" priority="154" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:N18">
-    <cfRule type="containsText" dxfId="37" priority="157" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="37" priority="158" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="157" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="158" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:N21">
-    <cfRule type="containsText" dxfId="35" priority="131" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="35" priority="132" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="131" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:N21">
     <cfRule type="containsText" dxfId="33" priority="122" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="123" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="32" priority="124" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="123" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="124" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="125" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L21)))</formula>
@@ -8783,68 +8738,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:N31">
-    <cfRule type="containsText" dxfId="26" priority="102" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="26" priority="103" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="102" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="103" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:N25">
     <cfRule type="containsText" dxfId="24" priority="96" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="98" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="23" priority="104" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="106" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="104" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="98" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="105" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="106" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="97" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:N27">
-    <cfRule type="containsText" dxfId="18" priority="87" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="18" priority="95" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="94" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="93" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="88" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="89" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="93" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="13" priority="87" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="94" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="95" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:N29">
-    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="12" priority="85" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="84" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="79" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="80" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="84" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="9" priority="79" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="78" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="85" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="86" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L29)))</formula>
@@ -8854,20 +8809,20 @@
     <cfRule type="containsText" dxfId="6" priority="67" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="68" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="5" priority="69" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="77" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="76" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="69" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="75" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="2" priority="75" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="76" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="1" priority="68" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="77" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -9169,118 +9124,118 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="151" t="s">
+      <c r="E18" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="163" t="s">
+      <c r="F18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="156" t="s">
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="148" t="s">
+      <c r="M18" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="157" t="s">
+      <c r="O18" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="159"/>
-      <c r="V18" s="157" t="s">
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="180"/>
+      <c r="V18" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="160" t="s">
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="181" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="175" t="s">
+      <c r="A19" s="188"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="G19" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="177"/>
-      <c r="I19" s="176" t="s">
+      <c r="H19" s="197"/>
+      <c r="I19" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="177"/>
-      <c r="K19" s="156"/>
-      <c r="M19" s="162"/>
-      <c r="O19" s="154" t="s">
+      <c r="J19" s="197"/>
+      <c r="K19" s="177"/>
+      <c r="M19" s="184"/>
+      <c r="O19" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="154" t="s">
+      <c r="P19" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="154" t="s">
+      <c r="Q19" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="154" t="s">
+      <c r="R19" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="154" t="s">
+      <c r="S19" s="175" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="154" t="s">
+      <c r="V19" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="154" t="s">
+      <c r="W19" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="154" t="s">
+      <c r="X19" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="154" t="s">
+      <c r="Y19" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="154" t="s">
+      <c r="Z19" s="175" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="161"/>
+      <c r="AB19" s="182"/>
     </row>
     <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="152"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="175"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="94" t="s">
         <v>10</v>
       </c>
@@ -9299,17 +9254,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="176"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="176"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -9330,7 +9285,7 @@
       <c r="D21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="174" t="s">
+      <c r="E21" s="198" t="s">
         <v>157</v>
       </c>
       <c r="F21" s="117">
@@ -9404,7 +9359,7 @@
       <c r="D22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="174"/>
+      <c r="E22" s="198"/>
       <c r="F22" s="117">
         <v>45913</v>
       </c>
@@ -9476,7 +9431,7 @@
       <c r="D23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="174"/>
+      <c r="E23" s="198"/>
       <c r="F23" s="117">
         <v>45910</v>
       </c>
@@ -9548,7 +9503,7 @@
       <c r="D24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="174"/>
+      <c r="E24" s="198"/>
       <c r="F24" s="117">
         <v>45927</v>
       </c>
@@ -9620,7 +9575,7 @@
       <c r="D25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="198"/>
       <c r="F25" s="117">
         <v>45915</v>
       </c>
@@ -10315,6 +10270,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -10328,18 +10295,6 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">

--- a/Test/Micro Plan - TA-416 Sep'25.xlsx
+++ b/Test/Micro Plan - TA-416 Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6342C0D-813C-487E-8089-A28BA47C7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48758C6-C2C1-4DAE-8171-1EEF5BAD5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1610,69 +1610,69 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,6 +1688,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,9 +1698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4780,41 +4780,41 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="187" t="s">
+      <c r="D18" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="187" t="s">
+      <c r="G18" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="174" t="s">
+      <c r="H18" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
       <c r="P18" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="183" t="s">
+      <c r="R18" s="169" t="s">
         <v>36</v>
       </c>
       <c r="T18" s="178" t="s">
@@ -4838,33 +4838,33 @@
       </c>
     </row>
     <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="188"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="173" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173" t="s">
+      <c r="I19" s="189"/>
+      <c r="J19" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173" t="s">
+      <c r="K19" s="189"/>
+      <c r="L19" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="173"/>
-      <c r="N19" s="171" t="s">
+      <c r="M19" s="189"/>
+      <c r="N19" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="171" t="s">
+      <c r="O19" s="185" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="177"/>
-      <c r="R19" s="184"/>
+      <c r="R19" s="183"/>
       <c r="T19" s="175" t="s">
         <v>24</v>
       </c>
@@ -4904,13 +4904,13 @@
       <c r="AG19" s="182"/>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="189"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="188"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="94" t="s">
         <v>10</v>
       </c>
@@ -4929,8 +4929,8 @@
       <c r="M20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
       <c r="P20" s="44" t="s">
         <v>51</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="102"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="169"/>
+      <c r="G25" s="187"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -5276,7 +5276,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="170"/>
+      <c r="G26" s="188"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
@@ -5631,13 +5631,16 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5650,16 +5653,13 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
@@ -6027,8 +6027,8 @@
   </sheetPr>
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6154,7 +6154,10 @@
       <c r="O2" s="101">
         <v>861022</v>
       </c>
-      <c r="P2" s="101"/>
+      <c r="P2" s="101">
+        <f>O2*10%</f>
+        <v>86102.200000000012</v>
+      </c>
     </row>
     <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
@@ -6202,7 +6205,10 @@
       <c r="O3" s="101">
         <v>1610385.43</v>
       </c>
-      <c r="P3" s="101"/>
+      <c r="P3" s="101">
+        <f>O3*20%</f>
+        <v>322077.08600000001</v>
+      </c>
       <c r="Q3" s="149"/>
       <c r="R3" s="149"/>
       <c r="T3" s="150"/>
@@ -6386,7 +6392,10 @@
       <c r="O6" s="101">
         <v>712728.77</v>
       </c>
-      <c r="P6" s="101"/>
+      <c r="P6" s="101">
+        <f>O6*20%</f>
+        <v>142545.75400000002</v>
+      </c>
       <c r="Q6" s="142"/>
       <c r="R6" s="142"/>
       <c r="T6" s="155"/>
@@ -6634,7 +6643,10 @@
       <c r="O10" s="101">
         <v>974538</v>
       </c>
-      <c r="P10" s="101"/>
+      <c r="P10" s="101">
+        <f>O10*20%</f>
+        <v>194907.6</v>
+      </c>
       <c r="Q10" s="142"/>
       <c r="R10" s="142"/>
       <c r="T10" s="155"/>
@@ -7006,7 +7018,10 @@
       <c r="O16" s="101">
         <v>828626</v>
       </c>
-      <c r="P16" s="101"/>
+      <c r="P16" s="101">
+        <f>O16*20%</f>
+        <v>165725.20000000001</v>
+      </c>
       <c r="Q16" s="142"/>
       <c r="R16" s="142"/>
       <c r="T16" s="155"/>
@@ -7253,7 +7268,10 @@
       <c r="O20" s="101">
         <v>669569.35</v>
       </c>
-      <c r="P20" s="101"/>
+      <c r="P20" s="101">
+        <f>O20*20%</f>
+        <v>133913.87</v>
+      </c>
       <c r="Q20" s="142"/>
       <c r="R20" s="142"/>
       <c r="T20" s="155"/>
@@ -7437,7 +7455,10 @@
       <c r="O23" s="101">
         <v>837742</v>
       </c>
-      <c r="P23" s="101"/>
+      <c r="P23" s="101">
+        <f>O23*20%</f>
+        <v>167548.40000000002</v>
+      </c>
       <c r="Q23" s="142"/>
       <c r="R23" s="142"/>
       <c r="T23" s="155"/>
@@ -7748,7 +7769,10 @@
       <c r="O28" s="101">
         <v>450628</v>
       </c>
-      <c r="P28" s="101"/>
+      <c r="P28" s="101">
+        <f>O28*20%</f>
+        <v>90125.6</v>
+      </c>
       <c r="Q28" s="142"/>
       <c r="R28" s="142"/>
       <c r="T28" s="155"/>
@@ -9124,32 +9148,32 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="183" t="s">
+      <c r="D18" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="187" t="s">
+      <c r="E18" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="174" t="s">
+      <c r="F18" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="183" t="s">
+      <c r="M18" s="169" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="178" t="s">
@@ -9173,24 +9197,24 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="188"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="195" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="196" t="s">
+      <c r="G19" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="197"/>
-      <c r="I19" s="196" t="s">
+      <c r="H19" s="198"/>
+      <c r="I19" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="197"/>
+      <c r="J19" s="198"/>
       <c r="K19" s="177"/>
-      <c r="M19" s="184"/>
+      <c r="M19" s="183"/>
       <c r="O19" s="175" t="s">
         <v>24</v>
       </c>
@@ -9230,12 +9254,12 @@
       <c r="AB19" s="182"/>
     </row>
     <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="188"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="195"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="94" t="s">
         <v>10</v>
       </c>
@@ -9285,7 +9309,7 @@
       <c r="D21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="198" t="s">
+      <c r="E21" s="195" t="s">
         <v>157</v>
       </c>
       <c r="F21" s="117">
@@ -9359,7 +9383,7 @@
       <c r="D22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="198"/>
+      <c r="E22" s="195"/>
       <c r="F22" s="117">
         <v>45913</v>
       </c>
@@ -9431,7 +9455,7 @@
       <c r="D23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="198"/>
+      <c r="E23" s="195"/>
       <c r="F23" s="117">
         <v>45910</v>
       </c>
@@ -9503,7 +9527,7 @@
       <c r="D24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="198"/>
+      <c r="E24" s="195"/>
       <c r="F24" s="117">
         <v>45927</v>
       </c>
@@ -9575,7 +9599,7 @@
       <c r="D25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="198"/>
+      <c r="E25" s="195"/>
       <c r="F25" s="117">
         <v>45915</v>
       </c>
@@ -10270,18 +10294,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -10295,6 +10307,18 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">
